--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_4_20.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_4_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>857038.1100483441</v>
+        <v>852695.0866469914</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2122528.737783234</v>
+        <v>2122528.737783229</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6624909.074076208</v>
+        <v>6624909.074076223</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8386338.867818523</v>
+        <v>8386338.867818518</v>
       </c>
     </row>
     <row r="11">
@@ -658,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>318.8346522669064</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>320.8422199291742</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>221.2655964161775</v>
@@ -718,16 +718,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>164.0283991378528</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -822,13 +822,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>100.3434053864687</v>
+        <v>68.47192901442591</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.5715133615489</v>
@@ -837,10 +837,10 @@
         <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
         <v>381.5867174954989</v>
@@ -907,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>185.5093652887437</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>19.64577591543895</v>
       </c>
     </row>
     <row r="6">
@@ -1101,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>53.03638470914571</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>164.0116202804579</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1141,16 +1141,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>35.74523592065157</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>136.9537457384598</v>
@@ -1183,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>142.871407048686</v>
       </c>
       <c r="V8" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>385.5580790162737</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.7745986547734</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>34.56570943550025</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>282.5844038405181</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -1372,16 +1372,16 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>389.1182300458777</v>
       </c>
       <c r="D11" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>382.088085150104</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G11" t="n">
         <v>409.0311279568768</v>
@@ -1417,13 +1417,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>253.1952022697474</v>
@@ -1435,7 +1435,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1551,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1575,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>233.3618613134482</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U13" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V13" t="n">
-        <v>22.96189723698664</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,22 +1606,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D14" t="n">
-        <v>66.68447052885311</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1654,13 +1654,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>164.8484195083599</v>
+        <v>63.08412111756724</v>
       </c>
       <c r="T14" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>253.1952022697474</v>
@@ -1672,10 +1672,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X14" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1770,25 +1770,25 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>100.3434053864687</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1818,16 +1818,16 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>113.1667354347865</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>229.2671475085637</v>
       </c>
       <c r="E17" t="n">
-        <v>388.5622931376137</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F17" t="n">
         <v>412.725494085322</v>
@@ -1861,10 +1861,10 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H17" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="18">
@@ -2049,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.03149870010068</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U19" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
-        <v>280.4970980481341</v>
+        <v>164.0116202804579</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2089,16 +2089,16 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F20" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>409.0311279568768</v>
+        <v>302.1480073738688</v>
       </c>
       <c r="H20" t="n">
-        <v>43.77671556199196</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2128,10 +2128,10 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2143,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
         <v>385.5580790162737</v>
@@ -2241,28 +2241,28 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2292,19 +2292,19 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
-        <v>230.1017751555189</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2320,10 +2320,10 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C23" t="n">
-        <v>55.34219483561976</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E23" t="n">
         <v>398.5576896346209</v>
@@ -2332,13 +2332,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>108.3478702182101</v>
       </c>
       <c r="H23" t="n">
-        <v>314.7099853831354</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>113.8693593270198</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>151.2037672717815</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>218.6444459974996</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>253.1473000347972</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>338.6857412035168</v>
@@ -2414,10 +2414,10 @@
         <v>118.5388453083828</v>
       </c>
       <c r="H24" t="n">
-        <v>84.32029961295802</v>
+        <v>84.32029961295805</v>
       </c>
       <c r="I24" t="n">
-        <v>37.86294566882091</v>
+        <v>37.862945668821</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>3.786554340598034</v>
+        <v>3.78655434059818</v>
       </c>
       <c r="S24" t="n">
         <v>127.6305556124799</v>
@@ -2493,10 +2493,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>151.5357458635549</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>123.6862121416196</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,10 +2529,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>33.18539906848398</v>
       </c>
       <c r="U25" t="n">
-        <v>138.356650920419</v>
+        <v>282.5697534131281</v>
       </c>
       <c r="V25" t="n">
         <v>263.319551727384</v>
@@ -2541,10 +2541,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X25" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2557,7 +2557,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>378.3166858048467</v>
       </c>
       <c r="D26" t="n">
         <v>381.5867174954989</v>
@@ -2569,13 +2569,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>408.4323500200001</v>
       </c>
       <c r="H26" t="n">
-        <v>314.7099853831354</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>113.8693593270197</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2620,7 +2620,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
-        <v>358.1696911146963</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>392.5258019886049</v>
@@ -2651,10 +2651,10 @@
         <v>118.5388453083828</v>
       </c>
       <c r="H27" t="n">
-        <v>84.32029961295802</v>
+        <v>84.32029961295805</v>
       </c>
       <c r="I27" t="n">
-        <v>37.86294566882091</v>
+        <v>37.862945668821</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>3.786554340598034</v>
+        <v>3.78655434059818</v>
       </c>
       <c r="S27" t="n">
         <v>127.6305556124799</v>
@@ -2715,25 +2715,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>33.32908721116428</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>154.0767819665104</v>
+        <v>76.19311257242515</v>
       </c>
       <c r="E28" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.3029221927327</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>151.5357458635549</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>123.6862121416196</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,19 +2763,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>196.1071114281789</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>232.2142445012335</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>282.5697534131281</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2794,10 +2794,10 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C29" t="n">
-        <v>217.5986841410146</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
         <v>398.5576896346209</v>
@@ -2806,13 +2806,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
-        <v>408.4323500200001</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>314.7099853831355</v>
       </c>
       <c r="I29" t="n">
-        <v>113.8693593270197</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>151.2037672717815</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>218.6444459974996</v>
       </c>
       <c r="U29" t="n">
-        <v>253.1473000347972</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W29" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>385.5580790162737</v>
+        <v>290.5061545904832</v>
       </c>
       <c r="Y29" t="n">
         <v>392.5258019886049</v>
@@ -2888,10 +2888,10 @@
         <v>118.5388453083828</v>
       </c>
       <c r="H30" t="n">
-        <v>84.32029961295802</v>
+        <v>84.32029961295805</v>
       </c>
       <c r="I30" t="n">
-        <v>37.86294566882091</v>
+        <v>37.862945668821</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>3.786554340598034</v>
+        <v>3.78655434059818</v>
       </c>
       <c r="S30" t="n">
         <v>127.6305556124799</v>
@@ -2952,28 +2952,28 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>156.8716112101037</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>25.05307416873339</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.3029221927327</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>151.5357458635549</v>
       </c>
       <c r="I31" t="n">
-        <v>123.6862121416196</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>11.08509183685219</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -3006,10 +3006,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>282.5697534131281</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
         <v>280.4970980481341</v>
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3034,22 +3034,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E32" t="n">
-        <v>226.9126272935376</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F32" t="n">
-        <v>412.725494085322</v>
+        <v>381.7954235957552</v>
       </c>
       <c r="G32" t="n">
-        <v>408.4323500200001</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>113.8693593270197</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3125,10 +3125,10 @@
         <v>118.5388453083828</v>
       </c>
       <c r="H33" t="n">
-        <v>84.32029961295802</v>
+        <v>84.32029961295805</v>
       </c>
       <c r="I33" t="n">
-        <v>37.86294566882091</v>
+        <v>37.862945668821</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>3.786554340598034</v>
+        <v>3.78655434059818</v>
       </c>
       <c r="S33" t="n">
         <v>127.6305556124799</v>
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>76.19311257242515</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>76.66783807881343</v>
+        <v>232.2142445012335</v>
       </c>
       <c r="U34" t="n">
         <v>282.5697534131281</v>
@@ -3252,7 +3252,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3283,10 +3283,10 @@
         <v>408.4323500200001</v>
       </c>
       <c r="H35" t="n">
-        <v>48.41157658930607</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>113.8693593270197</v>
+        <v>113.8693593270199</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>151.2037672717815</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>253.1473000347972</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>338.6857412035168</v>
+        <v>38.60126140172657</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y35" t="n">
         <v>392.5258019886049</v>
@@ -3362,10 +3362,10 @@
         <v>118.5388453083828</v>
       </c>
       <c r="H36" t="n">
-        <v>84.32029961295802</v>
+        <v>84.32029961295805</v>
       </c>
       <c r="I36" t="n">
-        <v>37.86294566882091</v>
+        <v>37.862945668821</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>3.786554340598034</v>
+        <v>3.786554340598187</v>
       </c>
       <c r="S36" t="n">
         <v>127.6305556124799</v>
@@ -3423,16 +3423,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E37" t="n">
-        <v>154.0032240193895</v>
+        <v>82.75844246658907</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>151.5357458635549</v>
       </c>
       <c r="I37" t="n">
-        <v>123.6862121416196</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>110.5851438286121</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>196.1071114281789</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>232.2142445012334</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>282.5697534131281</v>
       </c>
       <c r="V37" t="n">
-        <v>35.628070930145</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3508,7 +3508,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D38" t="n">
-        <v>233.9557337714531</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
         <v>398.5576896346209</v>
@@ -3517,10 +3517,10 @@
         <v>412.725494085322</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>408.4323500200001</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>266.6123653753442</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,19 +3553,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>151.2037672717815</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>218.6444459974996</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>253.1473000347972</v>
       </c>
       <c r="V38" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>385.5580790162737</v>
@@ -3599,10 +3599,10 @@
         <v>118.5388453083828</v>
       </c>
       <c r="H39" t="n">
-        <v>84.32029961295802</v>
+        <v>84.32029961295805</v>
       </c>
       <c r="I39" t="n">
-        <v>37.86294566882091</v>
+        <v>37.862945668821</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>3.786554340598034</v>
+        <v>3.786554340598187</v>
       </c>
       <c r="S39" t="n">
         <v>127.6305556124799</v>
@@ -3660,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.3029221927327</v>
+        <v>127.0233469907066</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>232.2142445012335</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3723,13 +3723,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y40" t="n">
-        <v>43.55638162458486</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3745,22 +3745,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D41" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F41" t="n">
-        <v>110.0818456956515</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
         <v>408.4323500200001</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>280.9100381894474</v>
       </c>
       <c r="I41" t="n">
-        <v>113.8693593270197</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>151.2037672717815</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>218.6444459974996</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>253.1473000347972</v>
       </c>
       <c r="V41" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
         <v>385.5580790162737</v>
@@ -3836,10 +3836,10 @@
         <v>118.5388453083828</v>
       </c>
       <c r="H42" t="n">
-        <v>84.32029961295802</v>
+        <v>84.32029961295805</v>
       </c>
       <c r="I42" t="n">
-        <v>37.86294566882091</v>
+        <v>37.862945668821</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>3.786554340598034</v>
+        <v>3.786554340598187</v>
       </c>
       <c r="S42" t="n">
         <v>127.6305556124799</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3909,10 +3909,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>155.7526754391568</v>
+        <v>138.356650920417</v>
       </c>
       <c r="G43" t="n">
-        <v>18.05632218340295</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3954,19 +3954,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>282.5697534131281</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="44">
@@ -3985,19 +3985,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F44" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
-        <v>250.9267059105795</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>113.8693593270199</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>151.2037672717813</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>218.6444459974996</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>253.1473000347972</v>
       </c>
       <c r="V44" t="n">
-        <v>338.6857412035168</v>
+        <v>193.8863113869291</v>
       </c>
       <c r="W44" t="n">
         <v>367.2890446813954</v>
@@ -4073,10 +4073,10 @@
         <v>118.5388453083828</v>
       </c>
       <c r="H45" t="n">
-        <v>84.32029961295801</v>
+        <v>84.32029961295805</v>
       </c>
       <c r="I45" t="n">
-        <v>37.86294566882084</v>
+        <v>37.862945668821</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>3.786554340597903</v>
+        <v>3.786554340598187</v>
       </c>
       <c r="S45" t="n">
-        <v>127.6305556124798</v>
+        <v>127.6305556124799</v>
       </c>
       <c r="T45" t="n">
         <v>173.9226398638123</v>
@@ -4134,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>142.104434880926</v>
       </c>
       <c r="F46" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.3029221927327</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>123.6862121416195</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>110.5851438286121</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>72.53101943461816</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>282.5697534131281</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1625.211129635568</v>
+        <v>1729.45838718197</v>
       </c>
       <c r="C2" t="n">
-        <v>1232.035628138499</v>
+        <v>1729.45838718197</v>
       </c>
       <c r="D2" t="n">
-        <v>846.5944993551666</v>
+        <v>1344.017258398638</v>
       </c>
       <c r="E2" t="n">
-        <v>846.5944993551666</v>
+        <v>941.4337335151823</v>
       </c>
       <c r="F2" t="n">
-        <v>846.5944993551666</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="G2" t="n">
         <v>524.5392950451601</v>
@@ -4354,28 +4354,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R2" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S2" t="n">
-        <v>2901.449916432349</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T2" t="n">
-        <v>2677.949313991765</v>
+        <v>2882.455782765193</v>
       </c>
       <c r="U2" t="n">
-        <v>2422.196584426364</v>
+        <v>2626.703053199792</v>
       </c>
       <c r="V2" t="n">
-        <v>2422.196584426364</v>
+        <v>2284.59624390331</v>
       </c>
       <c r="W2" t="n">
-        <v>2422.196584426364</v>
+        <v>2118.910992248913</v>
       </c>
       <c r="X2" t="n">
-        <v>2422.196584426364</v>
+        <v>1729.45838718197</v>
       </c>
       <c r="Y2" t="n">
-        <v>2025.705875346965</v>
+        <v>1729.45838718197</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>861.4851108441464</v>
+        <v>1586.986833370171</v>
       </c>
       <c r="C3" t="n">
-        <v>710.8308804042387</v>
+        <v>1436.332602930263</v>
       </c>
       <c r="D3" t="n">
-        <v>580.741913025719</v>
+        <v>1306.243635551744</v>
       </c>
       <c r="E3" t="n">
-        <v>444.2954221366068</v>
+        <v>1169.797144662632</v>
       </c>
       <c r="F3" t="n">
-        <v>319.8636160197386</v>
+        <v>1045.365338545763</v>
       </c>
       <c r="G3" t="n">
-        <v>199.803798091603</v>
+        <v>925.3055206176277</v>
       </c>
       <c r="H3" t="n">
-        <v>111.5063816922039</v>
+        <v>837.0081042182287</v>
       </c>
       <c r="I3" t="n">
-        <v>62.11912770411553</v>
+        <v>787.6208502301403</v>
       </c>
       <c r="J3" t="n">
-        <v>62.11912770411553</v>
+        <v>787.6208502301403</v>
       </c>
       <c r="K3" t="n">
-        <v>62.11912770411553</v>
+        <v>1107.359996292367</v>
       </c>
       <c r="L3" t="n">
-        <v>545.6852136024288</v>
+        <v>1590.92608219068</v>
       </c>
       <c r="M3" t="n">
-        <v>568.1699486069232</v>
+        <v>1590.92608219068</v>
       </c>
       <c r="N3" t="n">
-        <v>1223.947919817482</v>
+        <v>1949.449642343508</v>
       </c>
       <c r="O3" t="n">
-        <v>1740.468202408463</v>
+        <v>2465.969924934489</v>
       </c>
       <c r="P3" t="n">
-        <v>2146.089571124861</v>
+        <v>2871.591293650886</v>
       </c>
       <c r="Q3" t="n">
-        <v>2380.454662679751</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R3" t="n">
-        <v>2356.537619577816</v>
+        <v>3082.039342103841</v>
       </c>
       <c r="S3" t="n">
-        <v>2221.606942477685</v>
+        <v>2947.10866500371</v>
       </c>
       <c r="T3" t="n">
-        <v>2044.623130676593</v>
+        <v>2770.124853202618</v>
       </c>
       <c r="U3" t="n">
-        <v>1834.559987355235</v>
+        <v>2560.06170988126</v>
       </c>
       <c r="V3" t="n">
-        <v>1612.019985726302</v>
+        <v>2337.521708252327</v>
       </c>
       <c r="W3" t="n">
-        <v>1381.902739859589</v>
+        <v>2107.404462385613</v>
       </c>
       <c r="X3" t="n">
-        <v>1192.595662209601</v>
+        <v>1918.097384735625</v>
       </c>
       <c r="Y3" t="n">
-        <v>1013.281445285108</v>
+        <v>1738.783167811132</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>963.5661502456679</v>
+        <v>455.0152973042123</v>
       </c>
       <c r="C4" t="n">
-        <v>963.5661502456679</v>
+        <v>455.0152973042123</v>
       </c>
       <c r="D4" t="n">
-        <v>862.2091751078208</v>
+        <v>385.851732643176</v>
       </c>
       <c r="E4" t="n">
-        <v>706.6503629670233</v>
+        <v>385.851732643176</v>
       </c>
       <c r="F4" t="n">
-        <v>549.3244281799962</v>
+        <v>385.851732643176</v>
       </c>
       <c r="G4" t="n">
-        <v>381.0703742794417</v>
+        <v>217.5976787426216</v>
       </c>
       <c r="H4" t="n">
-        <v>225.5918232409357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I4" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J4" t="n">
         <v>62.11912770411553</v>
@@ -4521,19 +4521,19 @@
         <v>963.5661502456679</v>
       </c>
       <c r="U4" t="n">
-        <v>963.5661502456679</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="V4" t="n">
-        <v>963.5661502456679</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="W4" t="n">
-        <v>963.5661502456679</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="X4" t="n">
-        <v>963.5661502456679</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="Y4" t="n">
-        <v>963.5661502456679</v>
+        <v>455.0152973042123</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1510.526376601847</v>
+        <v>1670.792951966536</v>
       </c>
       <c r="C5" t="n">
-        <v>1510.526376601847</v>
+        <v>1277.617450469467</v>
       </c>
       <c r="D5" t="n">
-        <v>1125.085247818514</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="E5" t="n">
-        <v>1125.085247818514</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F5" t="n">
-        <v>937.702050557157</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G5" t="n">
-        <v>524.5392950451601</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H5" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I5" t="n">
         <v>62.11912770411553</v>
@@ -4594,25 +4594,25 @@
         <v>3067.963471491298</v>
       </c>
       <c r="S5" t="n">
-        <v>3067.963471491298</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T5" t="n">
-        <v>3067.963471491298</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="U5" t="n">
-        <v>3067.963471491298</v>
+        <v>2422.196584426364</v>
       </c>
       <c r="V5" t="n">
-        <v>3067.963471491298</v>
+        <v>2080.089775129883</v>
       </c>
       <c r="W5" t="n">
-        <v>2696.964436459586</v>
+        <v>2080.089775129883</v>
       </c>
       <c r="X5" t="n">
-        <v>2307.511831392642</v>
+        <v>1690.637170062939</v>
       </c>
       <c r="Y5" t="n">
-        <v>1911.021122313243</v>
+        <v>1670.792951966536</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J6" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K6" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L6" t="n">
-        <v>545.6852136024288</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M6" t="n">
-        <v>1173.45686322911</v>
+        <v>1286.571845448837</v>
       </c>
       <c r="N6" t="n">
-        <v>1829.234834439669</v>
+        <v>1629.56928853388</v>
       </c>
       <c r="O6" t="n">
-        <v>2345.75511703065</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P6" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q6" t="n">
         <v>2380.454662679751</v>
@@ -4749,22 +4749,22 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R7" t="n">
-        <v>839.6651608782449</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S7" t="n">
-        <v>636.8490770607943</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T7" t="n">
-        <v>401.1300252290284</v>
+        <v>727.847098413902</v>
       </c>
       <c r="U7" t="n">
-        <v>115.6912334709294</v>
+        <v>727.847098413902</v>
       </c>
       <c r="V7" t="n">
-        <v>62.11912770411553</v>
+        <v>461.8677532347263</v>
       </c>
       <c r="W7" t="n">
-        <v>62.11912770411553</v>
+        <v>296.1994499211324</v>
       </c>
       <c r="X7" t="n">
         <v>62.11912770411553</v>
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>560.6455939549091</v>
+        <v>1433.096963477125</v>
       </c>
       <c r="C8" t="n">
-        <v>560.6455939549091</v>
+        <v>1433.096963477125</v>
       </c>
       <c r="D8" t="n">
-        <v>560.6455939549091</v>
+        <v>1433.096963477125</v>
       </c>
       <c r="E8" t="n">
-        <v>560.6455939549091</v>
+        <v>1030.51343859367</v>
       </c>
       <c r="F8" t="n">
-        <v>560.6455939549091</v>
+        <v>613.6190001236475</v>
       </c>
       <c r="G8" t="n">
-        <v>524.5392950451601</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="H8" t="n">
         <v>200.4562446116507</v>
@@ -4831,25 +4831,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S8" t="n">
-        <v>2939.442830146827</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T8" t="n">
-        <v>2715.942227706244</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U8" t="n">
-        <v>2460.189498140842</v>
+        <v>2961.641832631346</v>
       </c>
       <c r="V8" t="n">
-        <v>2118.082688844361</v>
+        <v>2619.535023334864</v>
       </c>
       <c r="W8" t="n">
-        <v>1747.083653812648</v>
+        <v>2619.535023334864</v>
       </c>
       <c r="X8" t="n">
-        <v>1357.631048745705</v>
+        <v>2230.082418267921</v>
       </c>
       <c r="Y8" t="n">
-        <v>961.1403396663061</v>
+        <v>1833.591709188522</v>
       </c>
     </row>
     <row r="9">
@@ -4886,22 +4886,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K9" t="n">
-        <v>96.81867335321709</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L9" t="n">
-        <v>580.3847592515303</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="M9" t="n">
-        <v>1208.156408878212</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N9" t="n">
-        <v>1863.93438008877</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O9" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P9" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q9" t="n">
         <v>2380.454662679751</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>217.5976787426216</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C10" t="n">
-        <v>217.5976787426216</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D10" t="n">
-        <v>217.5976787426216</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E10" t="n">
-        <v>217.5976787426216</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F10" t="n">
-        <v>217.5976787426216</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G10" t="n">
-        <v>217.5976787426216</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H10" t="n">
         <v>62.11912770411553</v>
@@ -4986,28 +4986,28 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R10" t="n">
-        <v>941.5716061499372</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="S10" t="n">
-        <v>738.7555223324865</v>
+        <v>804.7503028625881</v>
       </c>
       <c r="T10" t="n">
-        <v>503.0364705007206</v>
+        <v>804.7503028625881</v>
       </c>
       <c r="U10" t="n">
-        <v>217.5976787426216</v>
+        <v>519.3115111044891</v>
       </c>
       <c r="V10" t="n">
-        <v>217.5976787426216</v>
+        <v>519.3115111044891</v>
       </c>
       <c r="W10" t="n">
-        <v>217.5976787426216</v>
+        <v>519.3115111044891</v>
       </c>
       <c r="X10" t="n">
-        <v>217.5976787426216</v>
+        <v>285.2311888874722</v>
       </c>
       <c r="Y10" t="n">
-        <v>217.5976787426216</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="11">
@@ -5017,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1709.09074009817</v>
+        <v>1747.645206245238</v>
       </c>
       <c r="C11" t="n">
-        <v>1709.09074009817</v>
+        <v>1354.596489027179</v>
       </c>
       <c r="D11" t="n">
-        <v>1323.649611314838</v>
+        <v>1354.596489027179</v>
       </c>
       <c r="E11" t="n">
-        <v>1323.649611314838</v>
+        <v>1354.596489027179</v>
       </c>
       <c r="F11" t="n">
         <v>937.702050557157</v>
@@ -5038,7 +5038,7 @@
         <v>200.4562446116507</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J11" t="n">
         <v>206.7689006129436</v>
@@ -5065,28 +5065,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R11" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>2901.449916432349</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T11" t="n">
-        <v>2677.949313991765</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U11" t="n">
-        <v>2422.196584426364</v>
+        <v>2850.203655640375</v>
       </c>
       <c r="V11" t="n">
-        <v>2080.089775129883</v>
+        <v>2508.096846343894</v>
       </c>
       <c r="W11" t="n">
-        <v>1709.09074009817</v>
+        <v>2137.097811312181</v>
       </c>
       <c r="X11" t="n">
-        <v>1709.09074009817</v>
+        <v>1747.645206245238</v>
       </c>
       <c r="Y11" t="n">
-        <v>1709.09074009817</v>
+        <v>1747.645206245238</v>
       </c>
     </row>
     <row r="12">
@@ -5123,22 +5123,22 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K12" t="n">
-        <v>175.2341099238429</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L12" t="n">
-        <v>175.2341099238429</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M12" t="n">
-        <v>803.0057595505241</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N12" t="n">
-        <v>1458.313011372373</v>
+        <v>1629.56928853388</v>
       </c>
       <c r="O12" t="n">
-        <v>1974.833293963354</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P12" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C13" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D13" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E13" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F13" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G13" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H13" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I13" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
         <v>62.11912770411553</v>
@@ -5223,28 +5223,28 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R13" t="n">
-        <v>839.6651608782449</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S13" t="n">
-        <v>636.8490770607943</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T13" t="n">
-        <v>401.1300252290284</v>
+        <v>896.8676667102127</v>
       </c>
       <c r="U13" t="n">
-        <v>115.6912334709294</v>
+        <v>611.4288749521137</v>
       </c>
       <c r="V13" t="n">
-        <v>92.49739787801357</v>
+        <v>345.4495297729379</v>
       </c>
       <c r="W13" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X13" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y13" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="14">
@@ -5254,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>522.6526802404305</v>
+        <v>2073.376476849992</v>
       </c>
       <c r="C14" t="n">
-        <v>129.4771787433611</v>
+        <v>1680.200975352922</v>
       </c>
       <c r="D14" t="n">
-        <v>62.11912770411552</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E14" t="n">
-        <v>62.11912770411552</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F14" t="n">
-        <v>62.11912770411552</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G14" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H14" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I14" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J14" t="n">
         <v>206.7689006129436</v>
@@ -5296,34 +5296,34 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P14" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q14" t="n">
         <v>3105.956385205776</v>
       </c>
       <c r="R14" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>2901.449916432348</v>
+        <v>3042.235050743587</v>
       </c>
       <c r="T14" t="n">
-        <v>2677.949313991765</v>
+        <v>3042.235050743587</v>
       </c>
       <c r="U14" t="n">
-        <v>2422.196584426364</v>
+        <v>2786.482321178186</v>
       </c>
       <c r="V14" t="n">
-        <v>2080.089775129882</v>
+        <v>2444.375511881704</v>
       </c>
       <c r="W14" t="n">
-        <v>1709.09074009817</v>
+        <v>2073.376476849992</v>
       </c>
       <c r="X14" t="n">
-        <v>1319.638135031226</v>
+        <v>2073.376476849992</v>
       </c>
       <c r="Y14" t="n">
-        <v>923.1474259518275</v>
+        <v>2073.376476849992</v>
       </c>
     </row>
     <row r="15">
@@ -5354,22 +5354,22 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I15" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>62.11912770411552</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>62.11912770411552</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L15" t="n">
-        <v>174.7633905351325</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M15" t="n">
-        <v>802.5350401618138</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N15" t="n">
-        <v>1458.313011372373</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="O15" t="n">
         <v>1974.833293963354</v>
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C16" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D16" t="n">
-        <v>862.2091751078208</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E16" t="n">
-        <v>706.6503629670233</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F16" t="n">
-        <v>549.3244281799962</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G16" t="n">
-        <v>381.0703742794417</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H16" t="n">
-        <v>225.5918232409357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I16" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K16" t="n">
         <v>143.9541688140574</v>
@@ -5466,22 +5466,22 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T16" t="n">
-        <v>963.5661502456679</v>
+        <v>727.847098413902</v>
       </c>
       <c r="U16" t="n">
-        <v>963.5661502456679</v>
+        <v>442.408306655803</v>
       </c>
       <c r="V16" t="n">
-        <v>963.5661502456679</v>
+        <v>176.4289614766272</v>
       </c>
       <c r="W16" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X16" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y16" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1747.083653812648</v>
+        <v>1919.518325348037</v>
       </c>
       <c r="C17" t="n">
-        <v>1747.083653812648</v>
+        <v>1526.342823850968</v>
       </c>
       <c r="D17" t="n">
-        <v>1747.083653812648</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E17" t="n">
-        <v>1354.596489027179</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F17" t="n">
-        <v>937.702050557157</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G17" t="n">
-        <v>524.5392950451601</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H17" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I17" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J17" t="n">
         <v>206.7689006129436</v>
@@ -5533,7 +5533,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P17" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q17" t="n">
         <v>3105.956385205776</v>
@@ -5542,25 +5542,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S17" t="n">
-        <v>2939.442830146827</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T17" t="n">
-        <v>2715.942227706243</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U17" t="n">
-        <v>2460.189498140842</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V17" t="n">
-        <v>2118.08268884436</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W17" t="n">
-        <v>1747.083653812648</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="X17" t="n">
-        <v>1747.083653812648</v>
+        <v>2716.503780138833</v>
       </c>
       <c r="Y17" t="n">
-        <v>1747.083653812648</v>
+        <v>2320.013071059434</v>
       </c>
     </row>
     <row r="18">
@@ -5591,28 +5591,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I18" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>62.11912770411552</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K18" t="n">
-        <v>96.81867335321709</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L18" t="n">
-        <v>580.3847592515303</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M18" t="n">
-        <v>1208.156408878212</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N18" t="n">
-        <v>1863.93438008877</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O18" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P18" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5649,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C19" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D19" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E19" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F19" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G19" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H19" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I19" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K19" t="n">
         <v>143.9541688140574</v>
@@ -5697,28 +5697,28 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R19" t="n">
-        <v>896.8676667102127</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S19" t="n">
-        <v>896.8676667102127</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T19" t="n">
-        <v>896.8676667102127</v>
+        <v>727.847098413902</v>
       </c>
       <c r="U19" t="n">
-        <v>611.4288749521136</v>
+        <v>727.847098413902</v>
       </c>
       <c r="V19" t="n">
-        <v>345.4495297729379</v>
+        <v>461.8677532347263</v>
       </c>
       <c r="W19" t="n">
-        <v>62.11912770411552</v>
+        <v>296.1994499211324</v>
       </c>
       <c r="X19" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y19" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="20">
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1715.011856574609</v>
+        <v>1548.519290316325</v>
       </c>
       <c r="C20" t="n">
-        <v>1321.83635507754</v>
+        <v>1155.343788819256</v>
       </c>
       <c r="D20" t="n">
-        <v>936.3952262942073</v>
+        <v>769.9026600359234</v>
       </c>
       <c r="E20" t="n">
-        <v>936.3952262942073</v>
+        <v>367.3191351524679</v>
       </c>
       <c r="F20" t="n">
-        <v>519.5007878241851</v>
+        <v>367.3191351524679</v>
       </c>
       <c r="G20" t="n">
-        <v>106.3380323121882</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H20" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I20" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J20" t="n">
         <v>206.7689006129436</v>
@@ -5761,43 +5761,43 @@
         <v>1059.071548358934</v>
       </c>
       <c r="M20" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403516</v>
       </c>
       <c r="N20" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O20" t="n">
         <v>2572.923332933306</v>
       </c>
       <c r="P20" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q20" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R20" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S20" t="n">
-        <v>2901.449916432348</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="T20" t="n">
-        <v>2901.449916432348</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="U20" t="n">
-        <v>2901.449916432348</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="V20" t="n">
-        <v>2901.449916432348</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="W20" t="n">
-        <v>2901.449916432348</v>
+        <v>2734.957350174064</v>
       </c>
       <c r="X20" t="n">
-        <v>2511.997311365405</v>
+        <v>2345.504745107121</v>
       </c>
       <c r="Y20" t="n">
-        <v>2115.506602286006</v>
+        <v>1949.014036027722</v>
       </c>
     </row>
     <row r="21">
@@ -5828,28 +5828,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I21" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
         <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>175.2341099238429</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L21" t="n">
-        <v>658.8001958221562</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M21" t="n">
-        <v>1286.571845448837</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N21" t="n">
-        <v>1942.349816659396</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O21" t="n">
-        <v>1942.349816659396</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P21" t="n">
-        <v>2347.971185375794</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5886,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>731.1401147350427</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C22" t="n">
-        <v>560.934996801032</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D22" t="n">
-        <v>405.3018837035467</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E22" t="n">
-        <v>405.3018837035467</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F22" t="n">
-        <v>247.9759489165196</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G22" t="n">
-        <v>247.9759489165196</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H22" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I22" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K22" t="n">
         <v>143.9541688140574</v>
@@ -5940,22 +5940,22 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T22" t="n">
-        <v>963.5661502456679</v>
+        <v>896.8676667102127</v>
       </c>
       <c r="U22" t="n">
-        <v>963.5661502456679</v>
+        <v>611.4288749521137</v>
       </c>
       <c r="V22" t="n">
-        <v>963.5661502456679</v>
+        <v>345.4495297729379</v>
       </c>
       <c r="W22" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X22" t="n">
-        <v>731.1401147350427</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y22" t="n">
-        <v>731.1401147350427</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1269.229275930387</v>
+        <v>1898.517673207228</v>
       </c>
       <c r="C23" t="n">
-        <v>1213.32806902572</v>
+        <v>1505.342171710158</v>
       </c>
       <c r="D23" t="n">
-        <v>1213.32806902572</v>
+        <v>1119.901042926826</v>
       </c>
       <c r="E23" t="n">
-        <v>810.7445441422649</v>
+        <v>717.3175180433702</v>
       </c>
       <c r="F23" t="n">
-        <v>393.8501056722426</v>
+        <v>300.423079573348</v>
       </c>
       <c r="G23" t="n">
-        <v>393.8501056722426</v>
+        <v>190.9807864236408</v>
       </c>
       <c r="H23" t="n">
-        <v>75.96123154786333</v>
+        <v>190.9807864236408</v>
       </c>
       <c r="I23" t="n">
-        <v>75.96123154786333</v>
+        <v>75.96123154786322</v>
       </c>
       <c r="J23" t="n">
-        <v>270.9233280874831</v>
+        <v>270.9233280874824</v>
       </c>
       <c r="K23" t="n">
-        <v>705.3108151130488</v>
+        <v>705.3108151130473</v>
       </c>
       <c r="L23" t="n">
-        <v>1292.177839612516</v>
+        <v>1292.177839612513</v>
       </c>
       <c r="M23" t="n">
-        <v>1942.267504401616</v>
+        <v>1942.267504401613</v>
       </c>
       <c r="N23" t="n">
-        <v>2575.851817818618</v>
+        <v>2575.851817818614</v>
       </c>
       <c r="O23" t="n">
-        <v>3115.769891361766</v>
+        <v>3115.769891361761</v>
       </c>
       <c r="P23" t="n">
-        <v>3549.20134913063</v>
+        <v>3549.201349130625</v>
       </c>
       <c r="Q23" t="n">
-        <v>3798.061577393166</v>
+        <v>3798.061577393161</v>
       </c>
       <c r="R23" t="n">
-        <v>3798.061577393166</v>
+        <v>3798.061577393161</v>
       </c>
       <c r="S23" t="n">
-        <v>3645.330499340862</v>
+        <v>3798.061577393161</v>
       </c>
       <c r="T23" t="n">
-        <v>3424.477523585812</v>
+        <v>3798.061577393161</v>
       </c>
       <c r="U23" t="n">
-        <v>3168.77318011632</v>
+        <v>3798.061577393161</v>
       </c>
       <c r="V23" t="n">
-        <v>2826.666370819838</v>
+        <v>3455.954768096679</v>
       </c>
       <c r="W23" t="n">
-        <v>2455.667335788126</v>
+        <v>3084.955733064967</v>
       </c>
       <c r="X23" t="n">
-        <v>2066.214730721183</v>
+        <v>2695.503127998024</v>
       </c>
       <c r="Y23" t="n">
-        <v>1669.724021641784</v>
+        <v>2299.012418918624</v>
       </c>
     </row>
     <row r="24">
@@ -6065,28 +6065,28 @@
         <v>114.206631213339</v>
       </c>
       <c r="I24" t="n">
-        <v>75.96123154786333</v>
+        <v>75.96123154786322</v>
       </c>
       <c r="J24" t="n">
-        <v>75.96123154786333</v>
+        <v>95.86737287901576</v>
       </c>
       <c r="K24" t="n">
-        <v>75.96123154786333</v>
+        <v>466.8226308582838</v>
       </c>
       <c r="L24" t="n">
-        <v>75.96123154786333</v>
+        <v>1019.255099689838</v>
       </c>
       <c r="M24" t="n">
-        <v>784.0967018402022</v>
+        <v>1019.255099689838</v>
       </c>
       <c r="N24" t="n">
-        <v>1522.365484919427</v>
+        <v>1019.255099689838</v>
       </c>
       <c r="O24" t="n">
-        <v>2114.348744482018</v>
+        <v>1611.238359252429</v>
       </c>
       <c r="P24" t="n">
-        <v>2352.277072610002</v>
+        <v>2077.425419922114</v>
       </c>
       <c r="Q24" t="n">
         <v>2352.277072610002</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>75.96123154786333</v>
+        <v>353.9632093308679</v>
       </c>
       <c r="C25" t="n">
-        <v>75.96123154786333</v>
+        <v>353.9632093308679</v>
       </c>
       <c r="D25" t="n">
-        <v>75.96123154786333</v>
+        <v>353.9632093308679</v>
       </c>
       <c r="E25" t="n">
-        <v>75.96123154786333</v>
+        <v>353.9632093308679</v>
       </c>
       <c r="F25" t="n">
-        <v>75.96123154786333</v>
+        <v>353.9632093308679</v>
       </c>
       <c r="G25" t="n">
-        <v>75.96123154786333</v>
+        <v>353.9632093308679</v>
       </c>
       <c r="H25" t="n">
-        <v>75.96123154786333</v>
+        <v>200.8967993676811</v>
       </c>
       <c r="I25" t="n">
-        <v>75.96123154786333</v>
+        <v>75.96123154786322</v>
       </c>
       <c r="J25" t="n">
-        <v>75.96123154786333</v>
+        <v>75.96123154786322</v>
       </c>
       <c r="K25" t="n">
-        <v>188.689628895047</v>
+        <v>188.6896288950467</v>
       </c>
       <c r="L25" t="n">
-        <v>392.3501285422312</v>
+        <v>392.3501285422306</v>
       </c>
       <c r="M25" t="n">
-        <v>620.3235645955783</v>
+        <v>620.3235645955773</v>
       </c>
       <c r="N25" t="n">
-        <v>844.2039549289387</v>
+        <v>844.2039549289374</v>
       </c>
       <c r="O25" t="n">
-        <v>1044.493221405438</v>
+        <v>1044.493221405437</v>
       </c>
       <c r="P25" t="n">
-        <v>1196.529419371396</v>
+        <v>1196.529419371394</v>
       </c>
       <c r="Q25" t="n">
-        <v>1222.217555045143</v>
+        <v>1222.217555045141</v>
       </c>
       <c r="R25" t="n">
-        <v>1222.217555045143</v>
+        <v>1222.217555045141</v>
       </c>
       <c r="S25" t="n">
-        <v>1222.217555045143</v>
+        <v>1222.217555045141</v>
       </c>
       <c r="T25" t="n">
-        <v>1222.217555045143</v>
+        <v>1188.69694992546</v>
       </c>
       <c r="U25" t="n">
-        <v>1082.463362196235</v>
+        <v>903.272956578866</v>
       </c>
       <c r="V25" t="n">
-        <v>816.4840170170592</v>
+        <v>637.2936113996902</v>
       </c>
       <c r="W25" t="n">
-        <v>533.1536149482369</v>
+        <v>353.9632093308679</v>
       </c>
       <c r="X25" t="n">
-        <v>299.07329273122</v>
+        <v>353.9632093308679</v>
       </c>
       <c r="Y25" t="n">
-        <v>75.96123154786333</v>
+        <v>353.9632093308679</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1296.894314214808</v>
+        <v>1658.681880997324</v>
       </c>
       <c r="C26" t="n">
-        <v>1296.894314214808</v>
+        <v>1276.543814527782</v>
       </c>
       <c r="D26" t="n">
-        <v>911.4531854314755</v>
+        <v>891.1026857444501</v>
       </c>
       <c r="E26" t="n">
-        <v>508.86966054802</v>
+        <v>488.5191608609947</v>
       </c>
       <c r="F26" t="n">
-        <v>508.86966054802</v>
+        <v>488.5191608609947</v>
       </c>
       <c r="G26" t="n">
-        <v>508.86966054802</v>
+        <v>75.96123154786322</v>
       </c>
       <c r="H26" t="n">
-        <v>190.9807864236408</v>
+        <v>75.96123154786322</v>
       </c>
       <c r="I26" t="n">
-        <v>75.96123154786332</v>
+        <v>75.96123154786322</v>
       </c>
       <c r="J26" t="n">
-        <v>270.9233280874832</v>
+        <v>270.9233280874824</v>
       </c>
       <c r="K26" t="n">
-        <v>705.3108151130484</v>
+        <v>705.3108151130473</v>
       </c>
       <c r="L26" t="n">
-        <v>1292.177839612515</v>
+        <v>1292.177839612513</v>
       </c>
       <c r="M26" t="n">
-        <v>1942.267504401616</v>
+        <v>1942.267504401613</v>
       </c>
       <c r="N26" t="n">
-        <v>2575.851817818617</v>
+        <v>2575.851817818614</v>
       </c>
       <c r="O26" t="n">
-        <v>3115.769891361766</v>
+        <v>3115.769891361761</v>
       </c>
       <c r="P26" t="n">
-        <v>3549.201349130629</v>
+        <v>3549.201349130625</v>
       </c>
       <c r="Q26" t="n">
-        <v>3798.061577393166</v>
+        <v>3798.061577393161</v>
       </c>
       <c r="R26" t="n">
-        <v>3798.061577393166</v>
+        <v>3798.061577393161</v>
       </c>
       <c r="S26" t="n">
-        <v>3645.330499340861</v>
+        <v>3645.330499340856</v>
       </c>
       <c r="T26" t="n">
-        <v>3424.477523585811</v>
+        <v>3424.477523585806</v>
       </c>
       <c r="U26" t="n">
-        <v>3168.773180116319</v>
+        <v>3168.773180116315</v>
       </c>
       <c r="V26" t="n">
-        <v>2826.666370819838</v>
+        <v>2826.666370819833</v>
       </c>
       <c r="W26" t="n">
-        <v>2455.667335788125</v>
+        <v>2455.66733578812</v>
       </c>
       <c r="X26" t="n">
-        <v>2093.879769005604</v>
+        <v>2455.66733578812</v>
       </c>
       <c r="Y26" t="n">
-        <v>1697.389059926205</v>
+        <v>2059.176626708721</v>
       </c>
     </row>
     <row r="27">
@@ -6293,7 +6293,7 @@
         <v>443.5466645234808</v>
       </c>
       <c r="F27" t="n">
-        <v>319.1148584066126</v>
+        <v>319.1148584066127</v>
       </c>
       <c r="G27" t="n">
         <v>199.3786510244077</v>
@@ -6302,22 +6302,22 @@
         <v>114.206631213339</v>
       </c>
       <c r="I27" t="n">
-        <v>75.96123154786332</v>
+        <v>75.96123154786322</v>
       </c>
       <c r="J27" t="n">
-        <v>75.96123154786332</v>
+        <v>95.86737287901576</v>
       </c>
       <c r="K27" t="n">
-        <v>280.9863166106123</v>
+        <v>466.8226308582838</v>
       </c>
       <c r="L27" t="n">
-        <v>280.9863166106123</v>
+        <v>1019.255099689838</v>
       </c>
       <c r="M27" t="n">
-        <v>280.9863166106123</v>
+        <v>1019.255099689838</v>
       </c>
       <c r="N27" t="n">
-        <v>1019.255099689837</v>
+        <v>1019.255099689838</v>
       </c>
       <c r="O27" t="n">
         <v>1611.238359252429</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1024.129563703548</v>
+        <v>152.9239715200098</v>
       </c>
       <c r="C28" t="n">
-        <v>990.4638190458065</v>
+        <v>152.9239715200098</v>
       </c>
       <c r="D28" t="n">
-        <v>834.8307059483213</v>
+        <v>75.96123154786322</v>
       </c>
       <c r="E28" t="n">
-        <v>679.2718938075238</v>
+        <v>75.96123154786322</v>
       </c>
       <c r="F28" t="n">
-        <v>521.9459590204968</v>
+        <v>75.96123154786322</v>
       </c>
       <c r="G28" t="n">
-        <v>353.9632093308679</v>
+        <v>75.96123154786322</v>
       </c>
       <c r="H28" t="n">
-        <v>200.8967993676811</v>
+        <v>75.96123154786322</v>
       </c>
       <c r="I28" t="n">
-        <v>75.96123154786332</v>
+        <v>75.96123154786322</v>
       </c>
       <c r="J28" t="n">
-        <v>75.96123154786332</v>
+        <v>75.96123154786322</v>
       </c>
       <c r="K28" t="n">
-        <v>188.689628895047</v>
+        <v>188.6896288950467</v>
       </c>
       <c r="L28" t="n">
-        <v>392.3501285422312</v>
+        <v>392.3501285422306</v>
       </c>
       <c r="M28" t="n">
-        <v>620.3235645955783</v>
+        <v>620.3235645955773</v>
       </c>
       <c r="N28" t="n">
-        <v>844.2039549289387</v>
+        <v>844.2039549289374</v>
       </c>
       <c r="O28" t="n">
-        <v>1044.493221405438</v>
+        <v>1044.493221405437</v>
       </c>
       <c r="P28" t="n">
-        <v>1196.529419371396</v>
+        <v>1196.529419371394</v>
       </c>
       <c r="Q28" t="n">
-        <v>1222.217555045143</v>
+        <v>1222.217555045141</v>
       </c>
       <c r="R28" t="n">
-        <v>1222.217555045143</v>
+        <v>1222.217555045141</v>
       </c>
       <c r="S28" t="n">
-        <v>1024.129563703548</v>
+        <v>1222.217555045141</v>
       </c>
       <c r="T28" t="n">
-        <v>1024.129563703548</v>
+        <v>987.6577121146021</v>
       </c>
       <c r="U28" t="n">
-        <v>1024.129563703548</v>
+        <v>702.233718768008</v>
       </c>
       <c r="V28" t="n">
-        <v>1024.129563703548</v>
+        <v>436.2543735888322</v>
       </c>
       <c r="W28" t="n">
-        <v>1024.129563703548</v>
+        <v>152.9239715200098</v>
       </c>
       <c r="X28" t="n">
-        <v>1024.129563703548</v>
+        <v>152.9239715200098</v>
       </c>
       <c r="Y28" t="n">
-        <v>1024.129563703548</v>
+        <v>152.9239715200098</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1642.813329737739</v>
+        <v>1991.944699306122</v>
       </c>
       <c r="C29" t="n">
-        <v>1423.01667909025</v>
+        <v>1598.769197809052</v>
       </c>
       <c r="D29" t="n">
-        <v>1423.01667909025</v>
+        <v>1213.32806902572</v>
       </c>
       <c r="E29" t="n">
-        <v>1020.433154206794</v>
+        <v>810.7445441422648</v>
       </c>
       <c r="F29" t="n">
-        <v>603.5387157367722</v>
+        <v>393.8501056722425</v>
       </c>
       <c r="G29" t="n">
-        <v>190.9807864236407</v>
+        <v>393.8501056722425</v>
       </c>
       <c r="H29" t="n">
-        <v>190.9807864236407</v>
+        <v>75.96123154786322</v>
       </c>
       <c r="I29" t="n">
-        <v>75.96123154786329</v>
+        <v>75.96123154786322</v>
       </c>
       <c r="J29" t="n">
-        <v>270.9233280874829</v>
+        <v>270.9233280874824</v>
       </c>
       <c r="K29" t="n">
-        <v>705.3108151130482</v>
+        <v>705.3108151130473</v>
       </c>
       <c r="L29" t="n">
-        <v>1292.177839612515</v>
+        <v>1292.177839612513</v>
       </c>
       <c r="M29" t="n">
-        <v>1942.267504401615</v>
+        <v>1942.267504401613</v>
       </c>
       <c r="N29" t="n">
-        <v>2575.851817818617</v>
+        <v>2575.851817818614</v>
       </c>
       <c r="O29" t="n">
-        <v>3115.769891361765</v>
+        <v>3115.769891361761</v>
       </c>
       <c r="P29" t="n">
-        <v>3549.201349130629</v>
+        <v>3549.201349130625</v>
       </c>
       <c r="Q29" t="n">
-        <v>3798.061577393165</v>
+        <v>3798.061577393161</v>
       </c>
       <c r="R29" t="n">
-        <v>3798.061577393164</v>
+        <v>3798.061577393161</v>
       </c>
       <c r="S29" t="n">
-        <v>3798.061577393164</v>
+        <v>3645.330499340856</v>
       </c>
       <c r="T29" t="n">
-        <v>3798.061577393164</v>
+        <v>3424.477523585806</v>
       </c>
       <c r="U29" t="n">
-        <v>3542.357233923673</v>
+        <v>3424.477523585806</v>
       </c>
       <c r="V29" t="n">
-        <v>3200.250424627191</v>
+        <v>3082.370714289325</v>
       </c>
       <c r="W29" t="n">
-        <v>2829.251389595478</v>
+        <v>3082.370714289325</v>
       </c>
       <c r="X29" t="n">
-        <v>2439.798784528535</v>
+        <v>2788.930154096918</v>
       </c>
       <c r="Y29" t="n">
-        <v>2043.308075449136</v>
+        <v>2392.439445017519</v>
       </c>
     </row>
     <row r="30">
@@ -6530,7 +6530,7 @@
         <v>443.5466645234808</v>
       </c>
       <c r="F30" t="n">
-        <v>319.1148584066126</v>
+        <v>319.1148584066127</v>
       </c>
       <c r="G30" t="n">
         <v>199.3786510244077</v>
@@ -6539,28 +6539,28 @@
         <v>114.206631213339</v>
       </c>
       <c r="I30" t="n">
-        <v>75.96123154786329</v>
+        <v>75.96123154786322</v>
       </c>
       <c r="J30" t="n">
-        <v>75.96123154786329</v>
+        <v>95.86737287901576</v>
       </c>
       <c r="K30" t="n">
-        <v>446.9164895271317</v>
+        <v>466.8226308582838</v>
       </c>
       <c r="L30" t="n">
-        <v>999.3489583586868</v>
+        <v>1019.255099689838</v>
       </c>
       <c r="M30" t="n">
-        <v>1707.484428651026</v>
+        <v>1019.255099689838</v>
       </c>
       <c r="N30" t="n">
-        <v>1707.484428651026</v>
+        <v>1019.255099689838</v>
       </c>
       <c r="O30" t="n">
-        <v>1707.484428651026</v>
+        <v>1611.238359252429</v>
       </c>
       <c r="P30" t="n">
-        <v>2173.67148932071</v>
+        <v>2077.425419922114</v>
       </c>
       <c r="Q30" t="n">
         <v>2352.277072610002</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>715.7750917929638</v>
+        <v>387.4838144505488</v>
       </c>
       <c r="C31" t="n">
-        <v>715.7750917929638</v>
+        <v>229.02764151105</v>
       </c>
       <c r="D31" t="n">
-        <v>715.7750917929638</v>
+        <v>229.02764151105</v>
       </c>
       <c r="E31" t="n">
-        <v>690.4689562689907</v>
+        <v>229.02764151105</v>
       </c>
       <c r="F31" t="n">
-        <v>533.1430214819637</v>
+        <v>229.02764151105</v>
       </c>
       <c r="G31" t="n">
-        <v>365.1602717923347</v>
+        <v>229.02764151105</v>
       </c>
       <c r="H31" t="n">
-        <v>212.0938618291479</v>
+        <v>75.96123154786322</v>
       </c>
       <c r="I31" t="n">
-        <v>87.15829400933015</v>
+        <v>75.96123154786322</v>
       </c>
       <c r="J31" t="n">
-        <v>75.96123154786329</v>
+        <v>75.96123154786322</v>
       </c>
       <c r="K31" t="n">
-        <v>188.689628895047</v>
+        <v>188.6896288950467</v>
       </c>
       <c r="L31" t="n">
-        <v>392.3501285422312</v>
+        <v>392.3501285422306</v>
       </c>
       <c r="M31" t="n">
-        <v>620.3235645955783</v>
+        <v>620.3235645955773</v>
       </c>
       <c r="N31" t="n">
-        <v>844.2039549289387</v>
+        <v>844.2039549289374</v>
       </c>
       <c r="O31" t="n">
-        <v>1044.493221405438</v>
+        <v>1044.493221405437</v>
       </c>
       <c r="P31" t="n">
-        <v>1196.529419371396</v>
+        <v>1196.529419371394</v>
       </c>
       <c r="Q31" t="n">
-        <v>1222.217555045143</v>
+        <v>1222.217555045141</v>
       </c>
       <c r="R31" t="n">
-        <v>1222.217555045143</v>
+        <v>1222.217555045141</v>
       </c>
       <c r="S31" t="n">
-        <v>1222.217555045143</v>
+        <v>1222.217555045141</v>
       </c>
       <c r="T31" t="n">
-        <v>1222.217555045143</v>
+        <v>1222.217555045141</v>
       </c>
       <c r="U31" t="n">
-        <v>1222.217555045143</v>
+        <v>936.7935616985469</v>
       </c>
       <c r="V31" t="n">
-        <v>1222.217555045143</v>
+        <v>670.8142165193711</v>
       </c>
       <c r="W31" t="n">
-        <v>938.8871529763205</v>
+        <v>387.4838144505488</v>
       </c>
       <c r="X31" t="n">
-        <v>938.8871529763205</v>
+        <v>387.4838144505488</v>
       </c>
       <c r="Y31" t="n">
-        <v>715.7750917929638</v>
+        <v>387.4838144505488</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1642.81332973774</v>
+        <v>1642.813329737736</v>
       </c>
       <c r="C32" t="n">
-        <v>1249.637828240671</v>
+        <v>1249.637828240666</v>
       </c>
       <c r="D32" t="n">
-        <v>1249.637828240671</v>
+        <v>864.196699457334</v>
       </c>
       <c r="E32" t="n">
-        <v>1020.433154206794</v>
+        <v>461.6131745738786</v>
       </c>
       <c r="F32" t="n">
-        <v>603.5387157367722</v>
+        <v>75.96123154786322</v>
       </c>
       <c r="G32" t="n">
-        <v>190.9807864236408</v>
+        <v>75.96123154786322</v>
       </c>
       <c r="H32" t="n">
-        <v>190.9807864236408</v>
+        <v>75.96123154786322</v>
       </c>
       <c r="I32" t="n">
-        <v>75.96123154786332</v>
+        <v>75.96123154786322</v>
       </c>
       <c r="J32" t="n">
-        <v>270.9233280874829</v>
+        <v>270.9233280874824</v>
       </c>
       <c r="K32" t="n">
-        <v>705.3108151130482</v>
+        <v>705.3108151130473</v>
       </c>
       <c r="L32" t="n">
-        <v>1292.177839612515</v>
+        <v>1292.177839612513</v>
       </c>
       <c r="M32" t="n">
-        <v>1942.267504401615</v>
+        <v>1942.267504401613</v>
       </c>
       <c r="N32" t="n">
-        <v>2575.851817818617</v>
+        <v>2575.851817818614</v>
       </c>
       <c r="O32" t="n">
-        <v>3115.769891361766</v>
+        <v>3115.769891361761</v>
       </c>
       <c r="P32" t="n">
-        <v>3549.201349130629</v>
+        <v>3549.201349130625</v>
       </c>
       <c r="Q32" t="n">
-        <v>3798.061577393166</v>
+        <v>3798.061577393161</v>
       </c>
       <c r="R32" t="n">
-        <v>3798.061577393166</v>
+        <v>3798.061577393161</v>
       </c>
       <c r="S32" t="n">
-        <v>3798.061577393166</v>
+        <v>3798.061577393161</v>
       </c>
       <c r="T32" t="n">
-        <v>3798.061577393166</v>
+        <v>3798.061577393161</v>
       </c>
       <c r="U32" t="n">
-        <v>3542.357233923673</v>
+        <v>3542.357233923669</v>
       </c>
       <c r="V32" t="n">
-        <v>3200.250424627192</v>
+        <v>3200.250424627187</v>
       </c>
       <c r="W32" t="n">
-        <v>2829.251389595479</v>
+        <v>2829.251389595475</v>
       </c>
       <c r="X32" t="n">
-        <v>2439.798784528536</v>
+        <v>2439.798784528532</v>
       </c>
       <c r="Y32" t="n">
-        <v>2043.308075449137</v>
+        <v>2043.308075449133</v>
       </c>
     </row>
     <row r="33">
@@ -6767,7 +6767,7 @@
         <v>443.5466645234808</v>
       </c>
       <c r="F33" t="n">
-        <v>319.1148584066126</v>
+        <v>319.1148584066127</v>
       </c>
       <c r="G33" t="n">
         <v>199.3786510244077</v>
@@ -6776,28 +6776,28 @@
         <v>114.206631213339</v>
       </c>
       <c r="I33" t="n">
-        <v>75.96123154786332</v>
+        <v>75.96123154786322</v>
       </c>
       <c r="J33" t="n">
-        <v>75.96123154786332</v>
+        <v>95.86737287901576</v>
       </c>
       <c r="K33" t="n">
-        <v>75.96123154786332</v>
+        <v>466.8226308582838</v>
       </c>
       <c r="L33" t="n">
-        <v>75.96123154786332</v>
+        <v>1019.255099689838</v>
       </c>
       <c r="M33" t="n">
-        <v>784.0967018402022</v>
+        <v>1019.255099689838</v>
       </c>
       <c r="N33" t="n">
-        <v>1294.106752377726</v>
+        <v>1019.255099689838</v>
       </c>
       <c r="O33" t="n">
-        <v>1886.090011940317</v>
+        <v>1611.238359252429</v>
       </c>
       <c r="P33" t="n">
-        <v>2352.277072610002</v>
+        <v>2077.425419922114</v>
       </c>
       <c r="Q33" t="n">
         <v>2352.277072610002</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2651.805253895886</v>
+        <v>152.9239715200098</v>
       </c>
       <c r="C34" t="n">
-        <v>2651.805253895886</v>
+        <v>152.9239715200098</v>
       </c>
       <c r="D34" t="n">
-        <v>2651.805253895886</v>
+        <v>152.9239715200098</v>
       </c>
       <c r="E34" t="n">
-        <v>2651.805253895886</v>
+        <v>75.96123154786322</v>
       </c>
       <c r="F34" t="n">
-        <v>2651.805253895886</v>
+        <v>75.96123154786322</v>
       </c>
       <c r="G34" t="n">
-        <v>2651.805253895886</v>
+        <v>75.96123154786322</v>
       </c>
       <c r="H34" t="n">
-        <v>2651.805253895886</v>
+        <v>75.96123154786322</v>
       </c>
       <c r="I34" t="n">
-        <v>2651.805253895886</v>
+        <v>75.96123154786322</v>
       </c>
       <c r="J34" t="n">
-        <v>2651.805253895886</v>
+        <v>75.96123154786322</v>
       </c>
       <c r="K34" t="n">
-        <v>2764.53365124307</v>
+        <v>188.6896288950467</v>
       </c>
       <c r="L34" t="n">
-        <v>2968.194150890254</v>
+        <v>392.3501285422306</v>
       </c>
       <c r="M34" t="n">
-        <v>3196.167586943601</v>
+        <v>620.3235645955773</v>
       </c>
       <c r="N34" t="n">
-        <v>3420.047977276962</v>
+        <v>844.2039549289374</v>
       </c>
       <c r="O34" t="n">
-        <v>3620.337243753461</v>
+        <v>1044.493221405437</v>
       </c>
       <c r="P34" t="n">
-        <v>3772.373441719419</v>
+        <v>1196.529419371394</v>
       </c>
       <c r="Q34" t="n">
-        <v>3798.061577393166</v>
+        <v>1222.217555045141</v>
       </c>
       <c r="R34" t="n">
-        <v>3798.061577393166</v>
+        <v>1222.217555045141</v>
       </c>
       <c r="S34" t="n">
-        <v>3798.061577393166</v>
+        <v>1222.217555045141</v>
       </c>
       <c r="T34" t="n">
-        <v>3720.619316707496</v>
+        <v>987.6577121146021</v>
       </c>
       <c r="U34" t="n">
-        <v>3435.195323360902</v>
+        <v>702.233718768008</v>
       </c>
       <c r="V34" t="n">
-        <v>3169.215978181726</v>
+        <v>436.2543735888322</v>
       </c>
       <c r="W34" t="n">
-        <v>2885.885576112903</v>
+        <v>152.9239715200098</v>
       </c>
       <c r="X34" t="n">
-        <v>2651.805253895886</v>
+        <v>152.9239715200098</v>
       </c>
       <c r="Y34" t="n">
-        <v>2651.805253895886</v>
+        <v>152.9239715200098</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2250.533891784092</v>
+        <v>2201.633309370652</v>
       </c>
       <c r="C35" t="n">
-        <v>1857.358390287023</v>
+        <v>1808.457807873582</v>
       </c>
       <c r="D35" t="n">
-        <v>1471.91726150369</v>
+        <v>1423.01667909025</v>
       </c>
       <c r="E35" t="n">
-        <v>1069.333736620235</v>
+        <v>1020.433154206794</v>
       </c>
       <c r="F35" t="n">
-        <v>652.4392981502127</v>
+        <v>603.5387157367722</v>
       </c>
       <c r="G35" t="n">
-        <v>239.8813688370813</v>
+        <v>190.9807864236408</v>
       </c>
       <c r="H35" t="n">
         <v>190.9807864236408</v>
       </c>
       <c r="I35" t="n">
-        <v>75.96123154786332</v>
+        <v>75.96123154786321</v>
       </c>
       <c r="J35" t="n">
-        <v>270.9233280874829</v>
+        <v>270.9233280874824</v>
       </c>
       <c r="K35" t="n">
-        <v>705.3108151130482</v>
+        <v>705.3108151130473</v>
       </c>
       <c r="L35" t="n">
-        <v>1292.177839612515</v>
+        <v>1292.177839612513</v>
       </c>
       <c r="M35" t="n">
-        <v>1942.267504401616</v>
+        <v>1942.267504401613</v>
       </c>
       <c r="N35" t="n">
-        <v>2575.851817818617</v>
+        <v>2575.851817818614</v>
       </c>
       <c r="O35" t="n">
-        <v>3115.769891361766</v>
+        <v>3115.769891361761</v>
       </c>
       <c r="P35" t="n">
-        <v>3549.201349130629</v>
+        <v>3549.201349130624</v>
       </c>
       <c r="Q35" t="n">
-        <v>3798.061577393166</v>
+        <v>3798.06157739316</v>
       </c>
       <c r="R35" t="n">
-        <v>3798.061577393166</v>
+        <v>3798.06157739316</v>
       </c>
       <c r="S35" t="n">
-        <v>3645.330499340861</v>
+        <v>3798.06157739316</v>
       </c>
       <c r="T35" t="n">
-        <v>3645.330499340861</v>
+        <v>3798.06157739316</v>
       </c>
       <c r="U35" t="n">
-        <v>3389.62615587137</v>
+        <v>3798.06157739316</v>
       </c>
       <c r="V35" t="n">
-        <v>3047.519346574888</v>
+        <v>3759.070404260103</v>
       </c>
       <c r="W35" t="n">
-        <v>3047.519346574888</v>
+        <v>3388.071369228391</v>
       </c>
       <c r="X35" t="n">
-        <v>3047.519346574888</v>
+        <v>2998.618764161447</v>
       </c>
       <c r="Y35" t="n">
-        <v>2651.028637495489</v>
+        <v>2602.128055082048</v>
       </c>
     </row>
     <row r="36">
@@ -7013,28 +7013,28 @@
         <v>114.206631213339</v>
       </c>
       <c r="I36" t="n">
-        <v>75.96123154786332</v>
+        <v>75.96123154786321</v>
       </c>
       <c r="J36" t="n">
-        <v>75.96123154786332</v>
+        <v>95.86737287901576</v>
       </c>
       <c r="K36" t="n">
-        <v>446.9164895271317</v>
+        <v>466.8226308582838</v>
       </c>
       <c r="L36" t="n">
-        <v>999.3489583586868</v>
+        <v>1019.255099689838</v>
       </c>
       <c r="M36" t="n">
-        <v>1294.106752377726</v>
+        <v>1019.255099689838</v>
       </c>
       <c r="N36" t="n">
-        <v>1294.106752377726</v>
+        <v>1019.255099689838</v>
       </c>
       <c r="O36" t="n">
-        <v>1886.090011940317</v>
+        <v>1611.238359252429</v>
       </c>
       <c r="P36" t="n">
-        <v>2352.277072610002</v>
+        <v>2077.425419922114</v>
       </c>
       <c r="Q36" t="n">
         <v>2352.277072610002</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2932.299633856502</v>
+        <v>468.2551409384232</v>
       </c>
       <c r="C37" t="n">
-        <v>2932.299633856502</v>
+        <v>468.2551409384232</v>
       </c>
       <c r="D37" t="n">
-        <v>2932.299633856502</v>
+        <v>312.622027840938</v>
       </c>
       <c r="E37" t="n">
-        <v>2776.740821715704</v>
+        <v>229.02764151105</v>
       </c>
       <c r="F37" t="n">
-        <v>2776.740821715704</v>
+        <v>229.02764151105</v>
       </c>
       <c r="G37" t="n">
-        <v>2776.740821715704</v>
+        <v>229.02764151105</v>
       </c>
       <c r="H37" t="n">
-        <v>2776.740821715704</v>
+        <v>75.96123154786321</v>
       </c>
       <c r="I37" t="n">
-        <v>2651.805253895886</v>
+        <v>75.96123154786321</v>
       </c>
       <c r="J37" t="n">
-        <v>2651.805253895886</v>
+        <v>75.96123154786321</v>
       </c>
       <c r="K37" t="n">
-        <v>2764.53365124307</v>
+        <v>188.6896288950467</v>
       </c>
       <c r="L37" t="n">
-        <v>2968.194150890254</v>
+        <v>392.3501285422306</v>
       </c>
       <c r="M37" t="n">
-        <v>3196.167586943601</v>
+        <v>620.3235645955773</v>
       </c>
       <c r="N37" t="n">
-        <v>3420.047977276962</v>
+        <v>844.2039549289374</v>
       </c>
       <c r="O37" t="n">
-        <v>3620.337243753461</v>
+        <v>1044.493221405437</v>
       </c>
       <c r="P37" t="n">
-        <v>3772.373441719419</v>
+        <v>1196.529419371394</v>
       </c>
       <c r="Q37" t="n">
-        <v>3798.061577393166</v>
+        <v>1222.217555045141</v>
       </c>
       <c r="R37" t="n">
-        <v>3686.359411909719</v>
+        <v>1222.217555045141</v>
       </c>
       <c r="S37" t="n">
-        <v>3488.271420568125</v>
+        <v>1222.217555045141</v>
       </c>
       <c r="T37" t="n">
-        <v>3253.711577637586</v>
+        <v>1222.217555045141</v>
       </c>
       <c r="U37" t="n">
-        <v>2968.287584290992</v>
+        <v>936.7935616985469</v>
       </c>
       <c r="V37" t="n">
-        <v>2932.299633856502</v>
+        <v>936.7935616985469</v>
       </c>
       <c r="W37" t="n">
-        <v>2932.299633856502</v>
+        <v>653.4631596297245</v>
       </c>
       <c r="X37" t="n">
-        <v>2932.299633856502</v>
+        <v>653.4631596297245</v>
       </c>
       <c r="Y37" t="n">
-        <v>2932.299633856502</v>
+        <v>653.4631596297245</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1524.933619399878</v>
+        <v>2355.919174065929</v>
       </c>
       <c r="C38" t="n">
-        <v>1131.758117902809</v>
+        <v>1962.743672568859</v>
       </c>
       <c r="D38" t="n">
-        <v>895.4391949013411</v>
+        <v>1577.302543785527</v>
       </c>
       <c r="E38" t="n">
-        <v>492.8556700178856</v>
+        <v>1174.719018902072</v>
       </c>
       <c r="F38" t="n">
-        <v>75.96123154786332</v>
+        <v>757.8245804320494</v>
       </c>
       <c r="G38" t="n">
-        <v>75.96123154786332</v>
+        <v>345.2666511189179</v>
       </c>
       <c r="H38" t="n">
-        <v>75.96123154786332</v>
+        <v>75.96123154786321</v>
       </c>
       <c r="I38" t="n">
-        <v>75.96123154786332</v>
+        <v>75.96123154786321</v>
       </c>
       <c r="J38" t="n">
-        <v>270.9233280874829</v>
+        <v>270.9233280874828</v>
       </c>
       <c r="K38" t="n">
-        <v>705.3108151130482</v>
+        <v>705.3108151130475</v>
       </c>
       <c r="L38" t="n">
-        <v>1292.177839612515</v>
+        <v>1292.177839612514</v>
       </c>
       <c r="M38" t="n">
-        <v>1942.267504401616</v>
+        <v>1942.267504401614</v>
       </c>
       <c r="N38" t="n">
-        <v>2575.851817818617</v>
+        <v>2575.851817818615</v>
       </c>
       <c r="O38" t="n">
-        <v>3115.769891361766</v>
+        <v>3115.769891361762</v>
       </c>
       <c r="P38" t="n">
-        <v>3549.201349130629</v>
+        <v>3549.201349130625</v>
       </c>
       <c r="Q38" t="n">
-        <v>3798.061577393166</v>
+        <v>3798.06157739316</v>
       </c>
       <c r="R38" t="n">
-        <v>3798.061577393166</v>
+        <v>3798.06157739316</v>
       </c>
       <c r="S38" t="n">
-        <v>3645.330499340861</v>
+        <v>3798.06157739316</v>
       </c>
       <c r="T38" t="n">
-        <v>3424.477523585811</v>
+        <v>3798.06157739316</v>
       </c>
       <c r="U38" t="n">
-        <v>3424.477523585811</v>
+        <v>3542.357233923668</v>
       </c>
       <c r="V38" t="n">
-        <v>3082.37071428933</v>
+        <v>3542.357233923668</v>
       </c>
       <c r="W38" t="n">
-        <v>2711.371679257617</v>
+        <v>3542.357233923668</v>
       </c>
       <c r="X38" t="n">
-        <v>2321.919074190674</v>
+        <v>3152.904628856725</v>
       </c>
       <c r="Y38" t="n">
-        <v>1925.428365111275</v>
+        <v>2756.413919777326</v>
       </c>
     </row>
     <row r="39">
@@ -7250,28 +7250,28 @@
         <v>114.206631213339</v>
       </c>
       <c r="I39" t="n">
-        <v>75.96123154786332</v>
+        <v>75.96123154786321</v>
       </c>
       <c r="J39" t="n">
-        <v>75.96123154786332</v>
+        <v>95.86737287901576</v>
       </c>
       <c r="K39" t="n">
-        <v>75.96123154786332</v>
+        <v>466.8226308582838</v>
       </c>
       <c r="L39" t="n">
-        <v>628.3937003794184</v>
+        <v>1019.255099689838</v>
       </c>
       <c r="M39" t="n">
-        <v>1336.529170671757</v>
+        <v>1019.255099689838</v>
       </c>
       <c r="N39" t="n">
-        <v>2074.797953750982</v>
+        <v>1019.255099689838</v>
       </c>
       <c r="O39" t="n">
-        <v>2352.277072610002</v>
+        <v>1611.238359252429</v>
       </c>
       <c r="P39" t="n">
-        <v>2352.277072610002</v>
+        <v>2077.425419922114</v>
       </c>
       <c r="Q39" t="n">
         <v>2352.277072610002</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>727.0338460993277</v>
+        <v>204.267642649587</v>
       </c>
       <c r="C40" t="n">
-        <v>556.8287281653169</v>
+        <v>204.267642649587</v>
       </c>
       <c r="D40" t="n">
-        <v>556.8287281653169</v>
+        <v>204.267642649587</v>
       </c>
       <c r="E40" t="n">
-        <v>401.2699160245194</v>
+        <v>204.267642649587</v>
       </c>
       <c r="F40" t="n">
-        <v>243.9439812374923</v>
+        <v>204.267642649587</v>
       </c>
       <c r="G40" t="n">
-        <v>75.96123154786332</v>
+        <v>75.96123154786321</v>
       </c>
       <c r="H40" t="n">
-        <v>75.96123154786332</v>
+        <v>75.96123154786321</v>
       </c>
       <c r="I40" t="n">
-        <v>75.96123154786332</v>
+        <v>75.96123154786321</v>
       </c>
       <c r="J40" t="n">
-        <v>75.96123154786332</v>
+        <v>75.96123154786321</v>
       </c>
       <c r="K40" t="n">
-        <v>188.689628895047</v>
+        <v>188.6896288950467</v>
       </c>
       <c r="L40" t="n">
-        <v>392.3501285422312</v>
+        <v>392.3501285422306</v>
       </c>
       <c r="M40" t="n">
-        <v>620.3235645955783</v>
+        <v>620.3235645955773</v>
       </c>
       <c r="N40" t="n">
-        <v>844.2039549289387</v>
+        <v>844.2039549289374</v>
       </c>
       <c r="O40" t="n">
-        <v>1044.493221405438</v>
+        <v>1044.493221405437</v>
       </c>
       <c r="P40" t="n">
-        <v>1196.529419371396</v>
+        <v>1196.529419371394</v>
       </c>
       <c r="Q40" t="n">
-        <v>1222.217555045143</v>
+        <v>1222.217555045141</v>
       </c>
       <c r="R40" t="n">
-        <v>1222.217555045143</v>
+        <v>1222.217555045141</v>
       </c>
       <c r="S40" t="n">
-        <v>1222.217555045143</v>
+        <v>1222.217555045141</v>
       </c>
       <c r="T40" t="n">
-        <v>1222.217555045143</v>
+        <v>987.6577121146021</v>
       </c>
       <c r="U40" t="n">
-        <v>1222.217555045143</v>
+        <v>987.6577121146021</v>
       </c>
       <c r="V40" t="n">
-        <v>956.2382098659672</v>
+        <v>721.6783669354263</v>
       </c>
       <c r="W40" t="n">
-        <v>956.2382098659672</v>
+        <v>438.3479648666039</v>
       </c>
       <c r="X40" t="n">
-        <v>956.2382098659672</v>
+        <v>204.267642649587</v>
       </c>
       <c r="Y40" t="n">
-        <v>912.2418647906289</v>
+        <v>204.267642649587</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1895.932654431591</v>
+        <v>1984.920139034216</v>
       </c>
       <c r="C41" t="n">
-        <v>1502.757152934521</v>
+        <v>1591.744637537147</v>
       </c>
       <c r="D41" t="n">
-        <v>1117.316024151189</v>
+        <v>1591.744637537147</v>
       </c>
       <c r="E41" t="n">
-        <v>714.7324992677334</v>
+        <v>1189.161112653691</v>
       </c>
       <c r="F41" t="n">
-        <v>603.5387157367722</v>
+        <v>772.2666741836689</v>
       </c>
       <c r="G41" t="n">
-        <v>190.9807864236408</v>
+        <v>359.7087448705374</v>
       </c>
       <c r="H41" t="n">
-        <v>190.9807864236408</v>
+        <v>75.96123154786321</v>
       </c>
       <c r="I41" t="n">
-        <v>75.96123154786332</v>
+        <v>75.96123154786321</v>
       </c>
       <c r="J41" t="n">
         <v>270.9233280874828</v>
       </c>
       <c r="K41" t="n">
-        <v>705.3108151130484</v>
+        <v>705.3108151130473</v>
       </c>
       <c r="L41" t="n">
-        <v>1292.177839612515</v>
+        <v>1292.177839612513</v>
       </c>
       <c r="M41" t="n">
-        <v>1942.267504401616</v>
+        <v>1942.267504401613</v>
       </c>
       <c r="N41" t="n">
-        <v>2575.851817818617</v>
+        <v>2575.851817818614</v>
       </c>
       <c r="O41" t="n">
-        <v>3115.769891361766</v>
+        <v>3115.769891361761</v>
       </c>
       <c r="P41" t="n">
-        <v>3549.201349130629</v>
+        <v>3549.201349130625</v>
       </c>
       <c r="Q41" t="n">
-        <v>3798.061577393166</v>
+        <v>3798.06157739316</v>
       </c>
       <c r="R41" t="n">
-        <v>3798.061577393166</v>
+        <v>3798.06157739316</v>
       </c>
       <c r="S41" t="n">
-        <v>3645.330499340861</v>
+        <v>3798.06157739316</v>
       </c>
       <c r="T41" t="n">
-        <v>3424.477523585811</v>
+        <v>3798.06157739316</v>
       </c>
       <c r="U41" t="n">
-        <v>3424.477523585811</v>
+        <v>3542.357233923668</v>
       </c>
       <c r="V41" t="n">
-        <v>3082.37071428933</v>
+        <v>3542.357233923668</v>
       </c>
       <c r="W41" t="n">
-        <v>3082.37071428933</v>
+        <v>3171.358198891955</v>
       </c>
       <c r="X41" t="n">
-        <v>2692.918109222387</v>
+        <v>2781.905593825012</v>
       </c>
       <c r="Y41" t="n">
-        <v>2296.427400142988</v>
+        <v>2385.414884745613</v>
       </c>
     </row>
     <row r="42">
@@ -7487,28 +7487,28 @@
         <v>114.206631213339</v>
       </c>
       <c r="I42" t="n">
-        <v>75.96123154786332</v>
+        <v>75.96123154786321</v>
       </c>
       <c r="J42" t="n">
-        <v>75.96123154786332</v>
+        <v>95.86737287901576</v>
       </c>
       <c r="K42" t="n">
-        <v>446.9164895271317</v>
+        <v>466.8226308582838</v>
       </c>
       <c r="L42" t="n">
-        <v>999.3489583586868</v>
+        <v>1019.255099689838</v>
       </c>
       <c r="M42" t="n">
-        <v>1294.106752377726</v>
+        <v>1019.255099689838</v>
       </c>
       <c r="N42" t="n">
-        <v>1294.106752377726</v>
+        <v>1019.255099689838</v>
       </c>
       <c r="O42" t="n">
-        <v>1886.090011940317</v>
+        <v>1611.238359252429</v>
       </c>
       <c r="P42" t="n">
-        <v>2352.277072610002</v>
+        <v>2077.425419922114</v>
       </c>
       <c r="Q42" t="n">
         <v>2352.277072610002</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>251.525875611055</v>
+        <v>215.7154243967692</v>
       </c>
       <c r="C43" t="n">
-        <v>251.525875611055</v>
+        <v>215.7154243967692</v>
       </c>
       <c r="D43" t="n">
-        <v>251.525875611055</v>
+        <v>215.7154243967692</v>
       </c>
       <c r="E43" t="n">
-        <v>251.525875611055</v>
+        <v>215.7154243967692</v>
       </c>
       <c r="F43" t="n">
-        <v>94.19994082402792</v>
+        <v>75.96123154786321</v>
       </c>
       <c r="G43" t="n">
-        <v>75.96123154786332</v>
+        <v>75.96123154786321</v>
       </c>
       <c r="H43" t="n">
-        <v>75.96123154786332</v>
+        <v>75.96123154786321</v>
       </c>
       <c r="I43" t="n">
-        <v>75.96123154786332</v>
+        <v>75.96123154786321</v>
       </c>
       <c r="J43" t="n">
-        <v>75.96123154786332</v>
+        <v>75.96123154786321</v>
       </c>
       <c r="K43" t="n">
-        <v>188.689628895047</v>
+        <v>188.6896288950467</v>
       </c>
       <c r="L43" t="n">
-        <v>392.3501285422312</v>
+        <v>392.3501285422306</v>
       </c>
       <c r="M43" t="n">
-        <v>620.3235645955783</v>
+        <v>620.3235645955773</v>
       </c>
       <c r="N43" t="n">
-        <v>844.2039549289387</v>
+        <v>844.2039549289374</v>
       </c>
       <c r="O43" t="n">
-        <v>1044.493221405438</v>
+        <v>1044.493221405437</v>
       </c>
       <c r="P43" t="n">
-        <v>1196.529419371396</v>
+        <v>1196.529419371394</v>
       </c>
       <c r="Q43" t="n">
-        <v>1222.217555045143</v>
+        <v>1222.217555045141</v>
       </c>
       <c r="R43" t="n">
-        <v>1222.217555045143</v>
+        <v>1222.217555045141</v>
       </c>
       <c r="S43" t="n">
-        <v>1222.217555045143</v>
+        <v>1222.217555045141</v>
       </c>
       <c r="T43" t="n">
-        <v>1222.217555045143</v>
+        <v>1222.217555045141</v>
       </c>
       <c r="U43" t="n">
-        <v>936.793561698549</v>
+        <v>1222.217555045141</v>
       </c>
       <c r="V43" t="n">
-        <v>670.8142165193732</v>
+        <v>956.2382098659651</v>
       </c>
       <c r="W43" t="n">
-        <v>670.8142165193732</v>
+        <v>672.9078077971428</v>
       </c>
       <c r="X43" t="n">
-        <v>436.7338943023562</v>
+        <v>438.8274855801259</v>
       </c>
       <c r="Y43" t="n">
-        <v>436.7338943023562</v>
+        <v>215.7154243967692</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1524.933619399883</v>
+        <v>1789.07538005752</v>
       </c>
       <c r="C44" t="n">
-        <v>1131.758117902813</v>
+        <v>1395.899878560451</v>
       </c>
       <c r="D44" t="n">
-        <v>746.3169891194811</v>
+        <v>1010.458749777119</v>
       </c>
       <c r="E44" t="n">
-        <v>746.3169891194811</v>
+        <v>607.875224893663</v>
       </c>
       <c r="F44" t="n">
-        <v>329.4225506494589</v>
+        <v>190.9807864236408</v>
       </c>
       <c r="G44" t="n">
-        <v>75.96123154786341</v>
+        <v>190.9807864236408</v>
       </c>
       <c r="H44" t="n">
-        <v>75.96123154786341</v>
+        <v>190.9807864236408</v>
       </c>
       <c r="I44" t="n">
-        <v>75.96123154786341</v>
+        <v>75.96123154786321</v>
       </c>
       <c r="J44" t="n">
-        <v>270.9233280874832</v>
+        <v>270.9233280874825</v>
       </c>
       <c r="K44" t="n">
-        <v>705.3108151130491</v>
+        <v>705.3108151130473</v>
       </c>
       <c r="L44" t="n">
-        <v>1292.177839612516</v>
+        <v>1292.177839612513</v>
       </c>
       <c r="M44" t="n">
-        <v>1942.267504401618</v>
+        <v>1942.267504401613</v>
       </c>
       <c r="N44" t="n">
-        <v>2575.85181781862</v>
+        <v>2575.851817818614</v>
       </c>
       <c r="O44" t="n">
-        <v>3115.769891361769</v>
+        <v>3115.769891361761</v>
       </c>
       <c r="P44" t="n">
-        <v>3549.201349130633</v>
+        <v>3549.201349130624</v>
       </c>
       <c r="Q44" t="n">
-        <v>3798.06157739317</v>
+        <v>3798.06157739316</v>
       </c>
       <c r="R44" t="n">
-        <v>3798.06157739317</v>
+        <v>3798.06157739316</v>
       </c>
       <c r="S44" t="n">
-        <v>3645.330499340866</v>
+        <v>3798.06157739316</v>
       </c>
       <c r="T44" t="n">
-        <v>3424.477523585816</v>
+        <v>3798.06157739316</v>
       </c>
       <c r="U44" t="n">
-        <v>3424.477523585816</v>
+        <v>3542.357233923668</v>
       </c>
       <c r="V44" t="n">
-        <v>3082.370714289335</v>
+        <v>3346.512474946972</v>
       </c>
       <c r="W44" t="n">
-        <v>2711.371679257622</v>
+        <v>2975.513439915259</v>
       </c>
       <c r="X44" t="n">
-        <v>2321.919074190679</v>
+        <v>2586.060834848316</v>
       </c>
       <c r="Y44" t="n">
-        <v>1925.42836511128</v>
+        <v>2189.570125768917</v>
       </c>
     </row>
     <row r="45">
@@ -7724,28 +7724,28 @@
         <v>114.206631213339</v>
       </c>
       <c r="I45" t="n">
-        <v>75.96123154786341</v>
+        <v>75.96123154786321</v>
       </c>
       <c r="J45" t="n">
-        <v>75.96123154786341</v>
+        <v>95.86737287901576</v>
       </c>
       <c r="K45" t="n">
-        <v>446.9164895271322</v>
+        <v>466.8226308582838</v>
       </c>
       <c r="L45" t="n">
-        <v>446.9164895271322</v>
+        <v>1019.255099689838</v>
       </c>
       <c r="M45" t="n">
-        <v>1155.051959819471</v>
+        <v>1019.255099689838</v>
       </c>
       <c r="N45" t="n">
-        <v>1155.051959819471</v>
+        <v>1019.255099689838</v>
       </c>
       <c r="O45" t="n">
-        <v>1747.035219382063</v>
+        <v>1611.238359252429</v>
       </c>
       <c r="P45" t="n">
-        <v>2077.425419922113</v>
+        <v>2077.425419922114</v>
       </c>
       <c r="Q45" t="n">
         <v>2352.277072610002</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>852.0437148758331</v>
+        <v>387.4838144505488</v>
       </c>
       <c r="C46" t="n">
-        <v>681.8385969418223</v>
+        <v>387.4838144505488</v>
       </c>
       <c r="D46" t="n">
-        <v>526.2054838443371</v>
+        <v>387.4838144505488</v>
       </c>
       <c r="E46" t="n">
-        <v>526.2054838443371</v>
+        <v>243.9439812374922</v>
       </c>
       <c r="F46" t="n">
-        <v>368.8795490573101</v>
+        <v>243.9439812374922</v>
       </c>
       <c r="G46" t="n">
-        <v>200.8967993676811</v>
+        <v>75.96123154786321</v>
       </c>
       <c r="H46" t="n">
-        <v>200.8967993676811</v>
+        <v>75.96123154786321</v>
       </c>
       <c r="I46" t="n">
-        <v>75.96123154786341</v>
+        <v>75.96123154786321</v>
       </c>
       <c r="J46" t="n">
-        <v>75.96123154786341</v>
+        <v>75.96123154786321</v>
       </c>
       <c r="K46" t="n">
-        <v>188.6896288950473</v>
+        <v>188.6896288950467</v>
       </c>
       <c r="L46" t="n">
-        <v>392.3501285422318</v>
+        <v>392.3501285422306</v>
       </c>
       <c r="M46" t="n">
-        <v>620.3235645955791</v>
+        <v>620.3235645955773</v>
       </c>
       <c r="N46" t="n">
-        <v>844.2039549289398</v>
+        <v>844.2039549289374</v>
       </c>
       <c r="O46" t="n">
-        <v>1044.49322140544</v>
+        <v>1044.493221405437</v>
       </c>
       <c r="P46" t="n">
-        <v>1196.529419371398</v>
+        <v>1196.529419371394</v>
       </c>
       <c r="Q46" t="n">
-        <v>1222.217555045145</v>
+        <v>1222.217555045141</v>
       </c>
       <c r="R46" t="n">
-        <v>1110.515389561698</v>
+        <v>1222.217555045141</v>
       </c>
       <c r="S46" t="n">
-        <v>1037.251733567134</v>
+        <v>1222.217555045141</v>
       </c>
       <c r="T46" t="n">
-        <v>1037.251733567134</v>
+        <v>1222.217555045141</v>
       </c>
       <c r="U46" t="n">
-        <v>1037.251733567134</v>
+        <v>936.7935616985469</v>
       </c>
       <c r="V46" t="n">
-        <v>1037.251733567134</v>
+        <v>670.8142165193711</v>
       </c>
       <c r="W46" t="n">
-        <v>1037.251733567134</v>
+        <v>387.4838144505488</v>
       </c>
       <c r="X46" t="n">
-        <v>1037.251733567134</v>
+        <v>387.4838144505488</v>
       </c>
       <c r="Y46" t="n">
-        <v>1037.251733567134</v>
+        <v>387.4838144505488</v>
       </c>
     </row>
   </sheetData>
@@ -8060,16 +8060,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K3" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>115.0989755892052</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N3" t="n">
-        <v>747.7741039759435</v>
+        <v>447.5171231095479</v>
       </c>
       <c r="O3" t="n">
         <v>614.4252180716981</v>
@@ -8294,7 +8294,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
         <v>89.59693533333335</v>
@@ -8306,16 +8306,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N6" t="n">
-        <v>747.7741039759435</v>
+        <v>431.8341765764318</v>
       </c>
       <c r="O6" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P6" t="n">
-        <v>122.133410929518</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8473,7 +8473,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
-        <v>331.2113854294513</v>
+        <v>331.2113854294514</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8534,13 +8534,13 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K9" t="n">
-        <v>124.646981443537</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
-        <v>578.5109386733963</v>
+        <v>278.2539578070002</v>
       </c>
       <c r="M9" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N9" t="n">
         <v>747.7741039759435</v>
@@ -8549,10 +8549,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8771,25 +8771,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>747.298629845933</v>
+        <v>108.8653421701425</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9005,22 +9005,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
-        <v>203.8424305246122</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
-        <v>747.7741039759435</v>
+        <v>457.616862805975</v>
       </c>
       <c r="O15" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P15" t="n">
         <v>496.801919078302</v>
@@ -9242,28 +9242,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
-        <v>124.646981443537</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N18" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9482,25 +9482,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N21" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O21" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>123.7997463922351</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9716,28 +9716,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>52.17609846406368</v>
+        <v>72.28331192987454</v>
       </c>
       <c r="K24" t="n">
-        <v>37.86348895248282</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
-        <v>20.49834389404766</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>726.4998994499999</v>
+        <v>11.21154561935529</v>
       </c>
       <c r="N24" t="n">
-        <v>747.7741039759435</v>
+        <v>2.048060461575375</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>266.2375427735534</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>50.09263685995631</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9953,19 +9953,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>52.17609846406368</v>
+        <v>72.28331192987454</v>
       </c>
       <c r="K27" t="n">
-        <v>244.9595344704111</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
-        <v>20.49834389404766</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>11.21154561935471</v>
+        <v>11.21154561935529</v>
       </c>
       <c r="N27" t="n">
-        <v>747.7741039759435</v>
+        <v>2.048060461575375</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
@@ -10190,7 +10190,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>52.17609846406368</v>
+        <v>72.28331192987454</v>
       </c>
       <c r="K30" t="n">
         <v>412.5657697396227</v>
@@ -10199,19 +10199,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>726.4998994499999</v>
+        <v>11.21154561935529</v>
       </c>
       <c r="N30" t="n">
-        <v>2.048060461574778</v>
+        <v>2.048060461575375</v>
       </c>
       <c r="O30" t="n">
-        <v>16.46232962463601</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>230.5023169501499</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10427,19 +10427,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>52.17609846406368</v>
+        <v>72.28331192987454</v>
       </c>
       <c r="K33" t="n">
-        <v>37.86348895248282</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
-        <v>20.49834389404766</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>726.4998994499999</v>
+        <v>11.21154561935529</v>
       </c>
       <c r="N33" t="n">
-        <v>517.2097276711946</v>
+        <v>2.048060461575375</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
@@ -10448,7 +10448,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>50.09263685995631</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10606,7 +10606,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q35" t="n">
-        <v>331.2113854294513</v>
+        <v>331.2113854294514</v>
       </c>
       <c r="R35" t="n">
         <v>102.5176150018526</v>
@@ -10664,7 +10664,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>52.17609846406368</v>
+        <v>72.28331192987457</v>
       </c>
       <c r="K36" t="n">
         <v>412.5657697396227</v>
@@ -10673,10 +10673,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>308.9466910931314</v>
+        <v>11.21154561935533</v>
       </c>
       <c r="N36" t="n">
-        <v>2.048060461574778</v>
+        <v>2.048060461575417</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
@@ -10685,7 +10685,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>50.09263685995631</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10901,28 +10901,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>52.17609846406368</v>
+        <v>72.28331192987457</v>
       </c>
       <c r="K39" t="n">
-        <v>37.86348895248282</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>726.4998994499999</v>
+        <v>11.21154561935533</v>
       </c>
       <c r="N39" t="n">
-        <v>747.7741039759435</v>
+        <v>2.048060461575417</v>
       </c>
       <c r="O39" t="n">
-        <v>296.7442678660701</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>25.90589819983261</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>50.09263685995631</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11138,7 +11138,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>52.17609846406368</v>
+        <v>72.28331192987457</v>
       </c>
       <c r="K42" t="n">
         <v>412.5657697396227</v>
@@ -11147,10 +11147,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>308.9466910931314</v>
+        <v>11.21154561935533</v>
       </c>
       <c r="N42" t="n">
-        <v>2.048060461574778</v>
+        <v>2.048060461575417</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
@@ -11159,7 +11159,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>50.09263685995631</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11375,25 +11375,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>52.17609846406348</v>
+        <v>72.28331192987457</v>
       </c>
       <c r="K45" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
-        <v>20.49834389404721</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>726.4998994499999</v>
+        <v>11.21154561935533</v>
       </c>
       <c r="N45" t="n">
-        <v>2.048060461574224</v>
+        <v>2.048060461575417</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>359.633373492812</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
         <v>327.7205688679246</v>
@@ -22546,22 +22546,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>90.19647568997044</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22594,10 +22594,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22606,16 +22606,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>203.2606455435426</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -22710,13 +22710,13 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>53.73337658004174</v>
+        <v>85.60485295208449</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -22725,10 +22725,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22761,7 +22761,7 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>263.319551727384</v>
@@ -22773,7 +22773,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22783,10 +22783,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -22795,16 +22795,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>227.2161287965783</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22834,25 +22834,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>372.8800260731659</v>
       </c>
     </row>
     <row r="6">
@@ -22989,25 +22989,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>210.2831670182383</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>116.4854777676763</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>220.8809405715231</v>
@@ -23029,16 +23029,16 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>373.2858920362253</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -23071,19 +23071,19 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>110.3237952210614</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -23196,7 +23196,7 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
         <v>131.7634811092929</v>
@@ -23226,13 +23226,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>100.8873808189754</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>166.2222135437759</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -23244,10 +23244,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23260,16 +23260,16 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C11" t="n">
-        <v>389.2437464820987</v>
+        <v>0.1255164362210053</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E11" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F11" t="n">
-        <v>30.63740893521805</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23305,13 +23305,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23323,7 +23323,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>392.5258019886049</v>
@@ -23439,7 +23439,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23463,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>240.3576544903974</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>231.7395189948467</v>
@@ -23494,22 +23494,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>314.9022469666458</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>320.8422199291742</v>
@@ -23542,13 +23542,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>101.7642983907927</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23560,10 +23560,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="15">
@@ -23658,25 +23658,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D16" t="n">
-        <v>53.73337658004174</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23706,16 +23706,16 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T16" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>280.4970980481341</v>
+        <v>167.3303626133476</v>
       </c>
       <c r="X16" t="n">
         <v>231.7395189948467</v>
@@ -23731,16 +23731,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>381.5867174954989</v>
+        <v>152.3195699869353</v>
       </c>
       <c r="E17" t="n">
-        <v>9.995396497007221</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23749,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X17" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23937,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>56.63048077364812</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T19" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>116.4854777676763</v>
       </c>
       <c r="X19" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>220.8809405715231</v>
@@ -23977,16 +23977,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>106.883120583008</v>
       </c>
       <c r="H20" t="n">
-        <v>277.0655043671823</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I20" t="n">
         <v>136.9537457384598</v>
@@ -24016,10 +24016,10 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T20" t="n">
         <v>221.2655964161775</v>
@@ -24031,7 +24031,7 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24129,28 +24129,28 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E22" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G22" t="n">
         <v>166.5715133615489</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I22" t="n">
         <v>131.7634811092929</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24180,19 +24180,19 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T22" t="n">
-        <v>233.3618613134482</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U22" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>1.637743839327811</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y22" t="n">
         <v>220.8809405715231</v>
@@ -24208,10 +24208,10 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>333.9015516464789</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24220,13 +24220,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>408.4323500200001</v>
+        <v>300.0844798017901</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>314.7099853831355</v>
       </c>
       <c r="I23" t="n">
-        <v>113.8693593270197</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>151.2037672717815</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>218.6444459974996</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>253.1473000347972</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24381,13 +24381,13 @@
         <v>166.3029221927327</v>
       </c>
       <c r="H25" t="n">
-        <v>151.5357458635549</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>123.6862121416196</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>11.08509183685219</v>
+        <v>11.08509183685233</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>110.5851438286121</v>
+        <v>110.5851438286122</v>
       </c>
       <c r="S25" t="n">
         <v>196.1071114281789</v>
       </c>
       <c r="T25" t="n">
-        <v>232.2142445012334</v>
+        <v>199.0288454327495</v>
       </c>
       <c r="U25" t="n">
-        <v>144.213102492709</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="26">
@@ -24445,7 +24445,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>389.2437464820987</v>
+        <v>10.92706067725203</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24457,13 +24457,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G26" t="n">
-        <v>408.4323500200001</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>314.7099853831355</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>113.8693593270198</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24508,7 +24508,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>27.38838790157746</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24603,28 +24603,28 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C28" t="n">
-        <v>135.1739795435064</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>77.88366939408525</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.3029221927327</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>151.5357458635549</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>123.6862121416196</v>
       </c>
       <c r="J28" t="n">
-        <v>11.08509183685219</v>
+        <v>11.08509183685233</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24648,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>110.5851438286121</v>
+        <v>110.5851438286122</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>196.1071114281789</v>
       </c>
       <c r="T28" t="n">
-        <v>232.2142445012334</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>282.5697534131281</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>231.7395189948467</v>
@@ -24682,10 +24682,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>171.6450623410841</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24694,13 +24694,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>408.4323500200001</v>
       </c>
       <c r="H29" t="n">
-        <v>314.7099853831354</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>113.8693593270198</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,22 +24730,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>151.2037672717815</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>218.6444459974996</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>253.1473000347972</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>95.05192442579056</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24840,28 +24840,28 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C31" t="n">
-        <v>168.5030667546707</v>
+        <v>11.63145554456693</v>
       </c>
       <c r="D31" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E31" t="n">
-        <v>128.9501498506561</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.3029221927327</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>123.6862121416196</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>11.08509183685233</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24885,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>110.5851438286121</v>
+        <v>110.5851438286122</v>
       </c>
       <c r="S31" t="n">
         <v>196.1071114281789</v>
       </c>
       <c r="T31" t="n">
-        <v>232.2142445012334</v>
+        <v>232.2142445012335</v>
       </c>
       <c r="U31" t="n">
-        <v>282.5697534131281</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="32">
@@ -24922,22 +24922,22 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>171.6450623410833</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>30.93007048956684</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>408.4323500200001</v>
       </c>
       <c r="H32" t="n">
-        <v>314.7099853831354</v>
+        <v>314.7099853831355</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>113.8693593270198</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -25083,7 +25083,7 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E34" t="n">
-        <v>154.0032240193895</v>
+        <v>77.81011144696436</v>
       </c>
       <c r="F34" t="n">
         <v>155.7526754391568</v>
@@ -25098,7 +25098,7 @@
         <v>123.6862121416196</v>
       </c>
       <c r="J34" t="n">
-        <v>11.08509183685219</v>
+        <v>11.08509183685233</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>110.5851438286121</v>
+        <v>110.5851438286122</v>
       </c>
       <c r="S34" t="n">
         <v>196.1071114281789</v>
       </c>
       <c r="T34" t="n">
-        <v>155.54640642242</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y34" t="n">
         <v>220.8809405715231</v>
@@ -25171,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>266.2984087938294</v>
+        <v>314.7099853831355</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,22 +25204,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>151.2037672717815</v>
       </c>
       <c r="T35" t="n">
         <v>218.6444459974996</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>253.1473000347972</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>300.0844798017902</v>
       </c>
       <c r="W35" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25311,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D37" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>71.24478155280043</v>
       </c>
       <c r="F37" t="n">
         <v>155.7526754391568</v>
@@ -25329,13 +25329,13 @@
         <v>166.3029221927327</v>
       </c>
       <c r="H37" t="n">
-        <v>151.5357458635549</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>123.6862121416196</v>
       </c>
       <c r="J37" t="n">
-        <v>11.08509183685219</v>
+        <v>11.08509183685234</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25359,22 +25359,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>110.5851438286122</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>196.1071114281789</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>232.2142445012335</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>227.691480797239</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>231.7395189948467</v>
@@ -25396,7 +25396,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>147.6309837240459</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25405,13 +25405,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>408.4323500200001</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>314.7099853831354</v>
+        <v>48.09762000779131</v>
       </c>
       <c r="I38" t="n">
-        <v>113.8693593270197</v>
+        <v>113.8693593270199</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,19 +25441,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>151.2037672717815</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>218.6444459974996</v>
       </c>
       <c r="U38" t="n">
-        <v>253.1473000347972</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25548,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D40" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>39.27957520202611</v>
       </c>
       <c r="H40" t="n">
         <v>151.5357458635549</v>
@@ -25572,7 +25572,7 @@
         <v>123.6862121416196</v>
       </c>
       <c r="J40" t="n">
-        <v>11.08509183685219</v>
+        <v>11.08509183685234</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>110.5851438286121</v>
+        <v>110.5851438286122</v>
       </c>
       <c r="S40" t="n">
         <v>196.1071114281789</v>
       </c>
       <c r="T40" t="n">
-        <v>232.2142445012334</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>282.5697534131281</v>
@@ -25611,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>177.3245589469382</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="41">
@@ -25633,22 +25633,22 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>302.6436483896705</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>314.7099853831354</v>
+        <v>33.79994719368801</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>113.8693593270199</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,19 +25678,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>151.2037672717815</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.6444459974996</v>
       </c>
       <c r="U41" t="n">
-        <v>253.1473000347972</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W41" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C43" t="n">
         <v>168.5030667546707</v>
@@ -25797,10 +25797,10 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>17.39602451873981</v>
       </c>
       <c r="G43" t="n">
-        <v>148.2466000093297</v>
+        <v>166.3029221927327</v>
       </c>
       <c r="H43" t="n">
         <v>151.5357458635549</v>
@@ -25809,7 +25809,7 @@
         <v>123.6862121416196</v>
       </c>
       <c r="J43" t="n">
-        <v>11.08509183685219</v>
+        <v>11.08509183685234</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>110.5851438286121</v>
+        <v>110.5851438286122</v>
       </c>
       <c r="S43" t="n">
         <v>196.1071114281789</v>
       </c>
       <c r="T43" t="n">
-        <v>232.2142445012334</v>
+        <v>232.2142445012335</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>282.5697534131281</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25873,19 +25873,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>157.5056441094206</v>
+        <v>408.4323500200001</v>
       </c>
       <c r="H44" t="n">
-        <v>314.7099853831354</v>
+        <v>314.7099853831355</v>
       </c>
       <c r="I44" t="n">
-        <v>113.8693593270195</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>151.2037672717815</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.6444459974996</v>
       </c>
       <c r="U44" t="n">
-        <v>253.1473000347972</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>144.7994298165877</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26022,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E46" t="n">
-        <v>154.0032240193895</v>
+        <v>11.89878913846351</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,10 +26043,10 @@
         <v>151.5357458635549</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>123.6862121416196</v>
       </c>
       <c r="J46" t="n">
-        <v>11.08509183685207</v>
+        <v>11.08509183685234</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26070,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>110.5851438286122</v>
       </c>
       <c r="S46" t="n">
-        <v>123.5760919935607</v>
+        <v>196.1071114281789</v>
       </c>
       <c r="T46" t="n">
-        <v>232.2142445012334</v>
+        <v>232.2142445012335</v>
       </c>
       <c r="U46" t="n">
-        <v>282.5697534131281</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>231.7395189948467</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>687730.5465028171</v>
+        <v>687730.5465028172</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>687730.5465028171</v>
+        <v>687730.5465028173</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>687730.5465028171</v>
+        <v>687730.546502817</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>687730.5465028171</v>
+        <v>687730.5465028173</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>687730.5465028171</v>
+        <v>687730.5465028172</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>687730.5465028168</v>
+        <v>687730.5465028172</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>769299.2652204662</v>
+        <v>769299.2652204654</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>769299.265220466</v>
+        <v>769299.2652204655</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>769299.2652204658</v>
+        <v>769299.2652204655</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>769299.265220466</v>
+        <v>769299.2652204654</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>769299.265220466</v>
+        <v>769299.2652204651</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>769299.2652204662</v>
+        <v>769299.2652204654</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>769299.265220466</v>
+        <v>769299.2652204654</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>769299.2652204663</v>
+        <v>769299.2652204654</v>
       </c>
     </row>
   </sheetData>
@@ -26322,40 +26322,40 @@
         <v>254445.3498136761</v>
       </c>
       <c r="E2" t="n">
+        <v>254445.3498136761</v>
+      </c>
+      <c r="F2" t="n">
         <v>254445.349813676</v>
-      </c>
-      <c r="F2" t="n">
-        <v>254445.3498136761</v>
       </c>
       <c r="G2" t="n">
         <v>254445.3498136761</v>
       </c>
       <c r="H2" t="n">
-        <v>254445.3498136761</v>
+        <v>254445.3498136762</v>
       </c>
       <c r="I2" t="n">
-        <v>287983.2599112164</v>
+        <v>287983.2599112161</v>
       </c>
       <c r="J2" t="n">
-        <v>287983.2599112164</v>
+        <v>287983.259911216</v>
       </c>
       <c r="K2" t="n">
-        <v>287983.2599112164</v>
+        <v>287983.259911216</v>
       </c>
       <c r="L2" t="n">
-        <v>287983.2599112163</v>
+        <v>287983.2599112161</v>
       </c>
       <c r="M2" t="n">
-        <v>287983.2599112163</v>
+        <v>287983.2599112159</v>
       </c>
       <c r="N2" t="n">
-        <v>287983.2599112163</v>
+        <v>287983.2599112158</v>
       </c>
       <c r="O2" t="n">
-        <v>287983.2599112164</v>
+        <v>287983.2599112158</v>
       </c>
       <c r="P2" t="n">
-        <v>287983.2599112165</v>
+        <v>287983.2599112159</v>
       </c>
     </row>
     <row r="3">
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>158130.2876379137</v>
+        <v>158130.2876379124</v>
       </c>
       <c r="J3" t="n">
         <v>203163.713112695</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>9.308143944508628e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26441,25 +26441,25 @@
         <v>49977.94139841732</v>
       </c>
       <c r="J4" t="n">
-        <v>49977.94139841731</v>
+        <v>49977.94139841732</v>
       </c>
       <c r="K4" t="n">
-        <v>49977.94139841731</v>
+        <v>49977.94139841732</v>
       </c>
       <c r="L4" t="n">
-        <v>49977.94139841731</v>
+        <v>49977.94139841732</v>
       </c>
       <c r="M4" t="n">
-        <v>49977.9413984173</v>
+        <v>49977.94139841732</v>
       </c>
       <c r="N4" t="n">
-        <v>49977.94139841731</v>
+        <v>49977.94139841732</v>
       </c>
       <c r="O4" t="n">
-        <v>49977.9413984173</v>
+        <v>49977.94139841732</v>
       </c>
       <c r="P4" t="n">
-        <v>49977.9413984173</v>
+        <v>49977.94139841732</v>
       </c>
     </row>
     <row r="5">
@@ -26481,37 +26481,37 @@
         <v>47210.5370551278</v>
       </c>
       <c r="F5" t="n">
-        <v>47210.53705512779</v>
+        <v>47210.5370551278</v>
       </c>
       <c r="G5" t="n">
-        <v>47210.53705512779</v>
+        <v>47210.5370551278</v>
       </c>
       <c r="H5" t="n">
-        <v>47210.53705512779</v>
+        <v>47210.5370551278</v>
       </c>
       <c r="I5" t="n">
-        <v>60977.55903357441</v>
+        <v>60977.55903357431</v>
       </c>
       <c r="J5" t="n">
-        <v>60977.55903357441</v>
+        <v>60977.55903357431</v>
       </c>
       <c r="K5" t="n">
-        <v>60977.55903357439</v>
+        <v>60977.55903357431</v>
       </c>
       <c r="L5" t="n">
-        <v>60977.55903357441</v>
+        <v>60977.55903357431</v>
       </c>
       <c r="M5" t="n">
-        <v>60977.55903357441</v>
+        <v>60977.5590335743</v>
       </c>
       <c r="N5" t="n">
-        <v>60977.55903357441</v>
+        <v>60977.5590335743</v>
       </c>
       <c r="O5" t="n">
-        <v>60977.55903357441</v>
+        <v>60977.5590335743</v>
       </c>
       <c r="P5" t="n">
-        <v>60977.5590335745</v>
+        <v>60977.55903357429</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-138778.1352373638</v>
+        <v>-139309.230269229</v>
       </c>
       <c r="C6" t="n">
-        <v>121441.220182465</v>
+        <v>120910.1251505998</v>
       </c>
       <c r="D6" t="n">
-        <v>121441.220182465</v>
+        <v>120910.1251505999</v>
       </c>
       <c r="E6" t="n">
-        <v>155068.8201824649</v>
+        <v>154537.7251505998</v>
       </c>
       <c r="F6" t="n">
-        <v>155068.820182465</v>
+        <v>154537.7251505998</v>
       </c>
       <c r="G6" t="n">
-        <v>155068.820182465</v>
+        <v>154537.7251505998</v>
       </c>
       <c r="H6" t="n">
-        <v>155068.820182465</v>
+        <v>154537.7251505999</v>
       </c>
       <c r="I6" t="n">
-        <v>18897.47184131108</v>
+        <v>18534.06635993455</v>
       </c>
       <c r="J6" t="n">
-        <v>-26135.95363347023</v>
+        <v>-26499.3591148481</v>
       </c>
       <c r="K6" t="n">
-        <v>177027.7594792247</v>
+        <v>176664.3539978469</v>
       </c>
       <c r="L6" t="n">
-        <v>177027.7594792246</v>
+        <v>176664.353997847</v>
       </c>
       <c r="M6" t="n">
-        <v>177027.7594792246</v>
+        <v>176664.3539978467</v>
       </c>
       <c r="N6" t="n">
-        <v>177027.7594792246</v>
+        <v>176664.3539978467</v>
       </c>
       <c r="O6" t="n">
-        <v>177027.7594792247</v>
+        <v>176664.3539978467</v>
       </c>
       <c r="P6" t="n">
-        <v>177027.7594792238</v>
+        <v>176664.3539978468</v>
       </c>
     </row>
   </sheetData>
@@ -26758,28 +26758,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>148.9460117980866</v>
+        <v>148.9460117980856</v>
       </c>
       <c r="J3" t="n">
-        <v>148.9460117980866</v>
+        <v>148.9460117980856</v>
       </c>
       <c r="K3" t="n">
-        <v>148.9460117980866</v>
+        <v>148.9460117980856</v>
       </c>
       <c r="L3" t="n">
-        <v>148.9460117980866</v>
+        <v>148.9460117980856</v>
       </c>
       <c r="M3" t="n">
-        <v>148.9460117980866</v>
+        <v>148.9460117980855</v>
       </c>
       <c r="N3" t="n">
-        <v>148.9460117980866</v>
+        <v>148.9460117980855</v>
       </c>
       <c r="O3" t="n">
-        <v>148.9460117980866</v>
+        <v>148.9460117980855</v>
       </c>
       <c r="P3" t="n">
-        <v>148.9460117980876</v>
+        <v>148.9460117980855</v>
       </c>
     </row>
     <row r="4">
@@ -26801,37 +26801,37 @@
         <v>776.4890963014441</v>
       </c>
       <c r="F4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="G4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="H4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="I4" t="n">
-        <v>949.5153943482916</v>
+        <v>949.5153943482902</v>
       </c>
       <c r="J4" t="n">
-        <v>949.5153943482915</v>
+        <v>949.5153943482902</v>
       </c>
       <c r="K4" t="n">
-        <v>949.5153943482911</v>
+        <v>949.5153943482902</v>
       </c>
       <c r="L4" t="n">
-        <v>949.5153943482915</v>
+        <v>949.5153943482902</v>
       </c>
       <c r="M4" t="n">
-        <v>949.5153943482915</v>
+        <v>949.5153943482901</v>
       </c>
       <c r="N4" t="n">
-        <v>949.5153943482915</v>
+        <v>949.5153943482901</v>
       </c>
       <c r="O4" t="n">
-        <v>949.5153943482915</v>
+        <v>949.5153943482901</v>
       </c>
       <c r="P4" t="n">
-        <v>949.5153943482926</v>
+        <v>949.51539434829</v>
       </c>
     </row>
   </sheetData>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>148.9460117980866</v>
+        <v>148.9460117980856</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>9.947598300641403e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27032,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>173.0262980468476</v>
+        <v>173.026298046846</v>
       </c>
       <c r="J4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27053,7 +27053,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5987779368767298</v>
+        <v>0.5987779368767254</v>
       </c>
       <c r="H23" t="n">
-        <v>6.13223454603881</v>
+        <v>6.132234546038766</v>
       </c>
       <c r="I23" t="n">
-        <v>23.08438641144015</v>
+        <v>23.08438641143998</v>
       </c>
       <c r="J23" t="n">
-        <v>50.82052891999138</v>
+        <v>50.82052891999102</v>
       </c>
       <c r="K23" t="n">
-        <v>76.16679898798337</v>
+        <v>76.16679898798282</v>
       </c>
       <c r="L23" t="n">
-        <v>94.49164927367461</v>
+        <v>94.49164927367391</v>
       </c>
       <c r="M23" t="n">
-        <v>105.1401664086061</v>
+        <v>105.1401664086054</v>
       </c>
       <c r="N23" t="n">
-        <v>106.8414442217572</v>
+        <v>106.8414442217564</v>
       </c>
       <c r="O23" t="n">
-        <v>100.8873461119392</v>
+        <v>100.8873461119384</v>
       </c>
       <c r="P23" t="n">
-        <v>86.10501579529489</v>
+        <v>86.10501579529426</v>
       </c>
       <c r="Q23" t="n">
-        <v>64.66128093089699</v>
+        <v>64.66128093089652</v>
       </c>
       <c r="R23" t="n">
-        <v>37.61298457733291</v>
+        <v>37.61298457733263</v>
       </c>
       <c r="S23" t="n">
-        <v>13.64465223657849</v>
+        <v>13.64465223657839</v>
       </c>
       <c r="T23" t="n">
-        <v>2.621150418677886</v>
+        <v>2.621150418677867</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04790223495013837</v>
+        <v>0.04790223495013802</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3203744404713562</v>
+        <v>0.3203744404713538</v>
       </c>
       <c r="H24" t="n">
-        <v>3.094142622447046</v>
+        <v>3.094142622447023</v>
       </c>
       <c r="I24" t="n">
-        <v>11.03043577938661</v>
+        <v>11.03043577938653</v>
       </c>
       <c r="J24" t="n">
-        <v>30.26835886926967</v>
+        <v>30.26835886926945</v>
       </c>
       <c r="K24" t="n">
-        <v>51.73344638085053</v>
+        <v>51.73344638085015</v>
       </c>
       <c r="L24" t="n">
-        <v>69.56200296287057</v>
+        <v>69.56200296287005</v>
       </c>
       <c r="M24" t="n">
-        <v>81.1755764299572</v>
+        <v>81.17557642995662</v>
       </c>
       <c r="N24" t="n">
-        <v>83.32405239259188</v>
+        <v>83.32405239259128</v>
       </c>
       <c r="O24" t="n">
-        <v>76.22522926425287</v>
+        <v>76.22522926425233</v>
       </c>
       <c r="P24" t="n">
-        <v>61.17746661948204</v>
+        <v>61.1774666194816</v>
       </c>
       <c r="Q24" t="n">
-        <v>40.89551629595768</v>
+        <v>40.89551629595738</v>
       </c>
       <c r="R24" t="n">
-        <v>19.89131833031807</v>
+        <v>19.89131833031792</v>
       </c>
       <c r="S24" t="n">
-        <v>5.950814716649966</v>
+        <v>5.950814716649924</v>
       </c>
       <c r="T24" t="n">
-        <v>1.291333819268317</v>
+        <v>1.291333819268307</v>
       </c>
       <c r="U24" t="n">
-        <v>0.02107726582048397</v>
+        <v>0.02107726582048381</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2685911688162217</v>
+        <v>0.2685911688162198</v>
       </c>
       <c r="H25" t="n">
-        <v>2.388019664566046</v>
+        <v>2.388019664566029</v>
       </c>
       <c r="I25" t="n">
-        <v>8.077268967673289</v>
+        <v>8.077268967673231</v>
       </c>
       <c r="J25" t="n">
-        <v>18.98939563530688</v>
+        <v>18.98939563530674</v>
       </c>
       <c r="K25" t="n">
-        <v>31.2054103406483</v>
+        <v>31.20541034064808</v>
       </c>
       <c r="L25" t="n">
-        <v>39.93218158927719</v>
+        <v>39.93218158927691</v>
       </c>
       <c r="M25" t="n">
-        <v>42.10288658089192</v>
+        <v>42.10288658089161</v>
       </c>
       <c r="N25" t="n">
-        <v>41.10177404257695</v>
+        <v>41.10177404257665</v>
       </c>
       <c r="O25" t="n">
-        <v>37.9641408432238</v>
+        <v>37.96414084322352</v>
       </c>
       <c r="P25" t="n">
-        <v>32.48488099937285</v>
+        <v>32.48488099937261</v>
       </c>
       <c r="Q25" t="n">
-        <v>22.49084778151108</v>
+        <v>22.49084778151092</v>
       </c>
       <c r="R25" t="n">
-        <v>12.07683564513666</v>
+        <v>12.07683564513657</v>
       </c>
       <c r="S25" t="n">
-        <v>4.680811551097245</v>
+        <v>4.680811551097211</v>
       </c>
       <c r="T25" t="n">
-        <v>1.147616812214765</v>
+        <v>1.147616812214757</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01465042738997575</v>
+        <v>0.01465042738997564</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5987779368767298</v>
+        <v>0.5987779368767254</v>
       </c>
       <c r="H26" t="n">
-        <v>6.13223454603881</v>
+        <v>6.132234546038766</v>
       </c>
       <c r="I26" t="n">
-        <v>23.08438641144015</v>
+        <v>23.08438641143998</v>
       </c>
       <c r="J26" t="n">
-        <v>50.82052891999138</v>
+        <v>50.82052891999102</v>
       </c>
       <c r="K26" t="n">
-        <v>76.16679898798337</v>
+        <v>76.16679898798282</v>
       </c>
       <c r="L26" t="n">
-        <v>94.49164927367461</v>
+        <v>94.49164927367391</v>
       </c>
       <c r="M26" t="n">
-        <v>105.1401664086061</v>
+        <v>105.1401664086054</v>
       </c>
       <c r="N26" t="n">
-        <v>106.8414442217572</v>
+        <v>106.8414442217564</v>
       </c>
       <c r="O26" t="n">
-        <v>100.8873461119392</v>
+        <v>100.8873461119384</v>
       </c>
       <c r="P26" t="n">
-        <v>86.10501579529489</v>
+        <v>86.10501579529426</v>
       </c>
       <c r="Q26" t="n">
-        <v>64.66128093089699</v>
+        <v>64.66128093089652</v>
       </c>
       <c r="R26" t="n">
-        <v>37.61298457733291</v>
+        <v>37.61298457733263</v>
       </c>
       <c r="S26" t="n">
-        <v>13.64465223657849</v>
+        <v>13.64465223657839</v>
       </c>
       <c r="T26" t="n">
-        <v>2.621150418677886</v>
+        <v>2.621150418677867</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04790223495013837</v>
+        <v>0.04790223495013802</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.3203744404713562</v>
+        <v>0.3203744404713538</v>
       </c>
       <c r="H27" t="n">
-        <v>3.094142622447046</v>
+        <v>3.094142622447023</v>
       </c>
       <c r="I27" t="n">
-        <v>11.03043577938661</v>
+        <v>11.03043577938653</v>
       </c>
       <c r="J27" t="n">
-        <v>30.26835886926967</v>
+        <v>30.26835886926945</v>
       </c>
       <c r="K27" t="n">
-        <v>51.73344638085053</v>
+        <v>51.73344638085015</v>
       </c>
       <c r="L27" t="n">
-        <v>69.56200296287057</v>
+        <v>69.56200296287005</v>
       </c>
       <c r="M27" t="n">
-        <v>81.1755764299572</v>
+        <v>81.17557642995662</v>
       </c>
       <c r="N27" t="n">
-        <v>83.32405239259188</v>
+        <v>83.32405239259128</v>
       </c>
       <c r="O27" t="n">
-        <v>76.22522926425287</v>
+        <v>76.22522926425233</v>
       </c>
       <c r="P27" t="n">
-        <v>61.17746661948204</v>
+        <v>61.1774666194816</v>
       </c>
       <c r="Q27" t="n">
-        <v>40.89551629595768</v>
+        <v>40.89551629595738</v>
       </c>
       <c r="R27" t="n">
-        <v>19.89131833031807</v>
+        <v>19.89131833031792</v>
       </c>
       <c r="S27" t="n">
-        <v>5.950814716649966</v>
+        <v>5.950814716649924</v>
       </c>
       <c r="T27" t="n">
-        <v>1.291333819268317</v>
+        <v>1.291333819268307</v>
       </c>
       <c r="U27" t="n">
-        <v>0.02107726582048397</v>
+        <v>0.02107726582048381</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2685911688162217</v>
+        <v>0.2685911688162198</v>
       </c>
       <c r="H28" t="n">
-        <v>2.388019664566046</v>
+        <v>2.388019664566029</v>
       </c>
       <c r="I28" t="n">
-        <v>8.077268967673289</v>
+        <v>8.077268967673231</v>
       </c>
       <c r="J28" t="n">
-        <v>18.98939563530688</v>
+        <v>18.98939563530674</v>
       </c>
       <c r="K28" t="n">
-        <v>31.2054103406483</v>
+        <v>31.20541034064808</v>
       </c>
       <c r="L28" t="n">
-        <v>39.93218158927719</v>
+        <v>39.93218158927691</v>
       </c>
       <c r="M28" t="n">
-        <v>42.10288658089192</v>
+        <v>42.10288658089161</v>
       </c>
       <c r="N28" t="n">
-        <v>41.10177404257695</v>
+        <v>41.10177404257665</v>
       </c>
       <c r="O28" t="n">
-        <v>37.9641408432238</v>
+        <v>37.96414084322352</v>
       </c>
       <c r="P28" t="n">
-        <v>32.48488099937285</v>
+        <v>32.48488099937261</v>
       </c>
       <c r="Q28" t="n">
-        <v>22.49084778151108</v>
+        <v>22.49084778151092</v>
       </c>
       <c r="R28" t="n">
-        <v>12.07683564513666</v>
+        <v>12.07683564513657</v>
       </c>
       <c r="S28" t="n">
-        <v>4.680811551097245</v>
+        <v>4.680811551097211</v>
       </c>
       <c r="T28" t="n">
-        <v>1.147616812214765</v>
+        <v>1.147616812214757</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01465042738997575</v>
+        <v>0.01465042738997564</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5987779368767298</v>
+        <v>0.5987779368767254</v>
       </c>
       <c r="H29" t="n">
-        <v>6.13223454603881</v>
+        <v>6.132234546038766</v>
       </c>
       <c r="I29" t="n">
-        <v>23.08438641144015</v>
+        <v>23.08438641143998</v>
       </c>
       <c r="J29" t="n">
-        <v>50.82052891999138</v>
+        <v>50.82052891999102</v>
       </c>
       <c r="K29" t="n">
-        <v>76.16679898798337</v>
+        <v>76.16679898798282</v>
       </c>
       <c r="L29" t="n">
-        <v>94.49164927367461</v>
+        <v>94.49164927367391</v>
       </c>
       <c r="M29" t="n">
-        <v>105.1401664086061</v>
+        <v>105.1401664086054</v>
       </c>
       <c r="N29" t="n">
-        <v>106.8414442217572</v>
+        <v>106.8414442217564</v>
       </c>
       <c r="O29" t="n">
-        <v>100.8873461119392</v>
+        <v>100.8873461119384</v>
       </c>
       <c r="P29" t="n">
-        <v>86.10501579529489</v>
+        <v>86.10501579529426</v>
       </c>
       <c r="Q29" t="n">
-        <v>64.66128093089699</v>
+        <v>64.66128093089652</v>
       </c>
       <c r="R29" t="n">
-        <v>37.61298457733291</v>
+        <v>37.61298457733263</v>
       </c>
       <c r="S29" t="n">
-        <v>13.64465223657849</v>
+        <v>13.64465223657839</v>
       </c>
       <c r="T29" t="n">
-        <v>2.621150418677886</v>
+        <v>2.621150418677867</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04790223495013837</v>
+        <v>0.04790223495013802</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.3203744404713562</v>
+        <v>0.3203744404713538</v>
       </c>
       <c r="H30" t="n">
-        <v>3.094142622447046</v>
+        <v>3.094142622447023</v>
       </c>
       <c r="I30" t="n">
-        <v>11.03043577938661</v>
+        <v>11.03043577938653</v>
       </c>
       <c r="J30" t="n">
-        <v>30.26835886926967</v>
+        <v>30.26835886926945</v>
       </c>
       <c r="K30" t="n">
-        <v>51.73344638085053</v>
+        <v>51.73344638085015</v>
       </c>
       <c r="L30" t="n">
-        <v>69.56200296287057</v>
+        <v>69.56200296287005</v>
       </c>
       <c r="M30" t="n">
-        <v>81.1755764299572</v>
+        <v>81.17557642995662</v>
       </c>
       <c r="N30" t="n">
-        <v>83.32405239259188</v>
+        <v>83.32405239259128</v>
       </c>
       <c r="O30" t="n">
-        <v>76.22522926425287</v>
+        <v>76.22522926425233</v>
       </c>
       <c r="P30" t="n">
-        <v>61.17746661948204</v>
+        <v>61.1774666194816</v>
       </c>
       <c r="Q30" t="n">
-        <v>40.89551629595768</v>
+        <v>40.89551629595738</v>
       </c>
       <c r="R30" t="n">
-        <v>19.89131833031807</v>
+        <v>19.89131833031792</v>
       </c>
       <c r="S30" t="n">
-        <v>5.950814716649966</v>
+        <v>5.950814716649924</v>
       </c>
       <c r="T30" t="n">
-        <v>1.291333819268317</v>
+        <v>1.291333819268307</v>
       </c>
       <c r="U30" t="n">
-        <v>0.02107726582048397</v>
+        <v>0.02107726582048381</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2685911688162217</v>
+        <v>0.2685911688162198</v>
       </c>
       <c r="H31" t="n">
-        <v>2.388019664566046</v>
+        <v>2.388019664566029</v>
       </c>
       <c r="I31" t="n">
-        <v>8.077268967673289</v>
+        <v>8.077268967673231</v>
       </c>
       <c r="J31" t="n">
-        <v>18.98939563530688</v>
+        <v>18.98939563530674</v>
       </c>
       <c r="K31" t="n">
-        <v>31.2054103406483</v>
+        <v>31.20541034064808</v>
       </c>
       <c r="L31" t="n">
-        <v>39.93218158927719</v>
+        <v>39.93218158927691</v>
       </c>
       <c r="M31" t="n">
-        <v>42.10288658089192</v>
+        <v>42.10288658089161</v>
       </c>
       <c r="N31" t="n">
-        <v>41.10177404257695</v>
+        <v>41.10177404257665</v>
       </c>
       <c r="O31" t="n">
-        <v>37.9641408432238</v>
+        <v>37.96414084322352</v>
       </c>
       <c r="P31" t="n">
-        <v>32.48488099937285</v>
+        <v>32.48488099937261</v>
       </c>
       <c r="Q31" t="n">
-        <v>22.49084778151108</v>
+        <v>22.49084778151092</v>
       </c>
       <c r="R31" t="n">
-        <v>12.07683564513666</v>
+        <v>12.07683564513657</v>
       </c>
       <c r="S31" t="n">
-        <v>4.680811551097245</v>
+        <v>4.680811551097211</v>
       </c>
       <c r="T31" t="n">
-        <v>1.147616812214765</v>
+        <v>1.147616812214757</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01465042738997575</v>
+        <v>0.01465042738997564</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5987779368767298</v>
+        <v>0.5987779368767254</v>
       </c>
       <c r="H32" t="n">
-        <v>6.13223454603881</v>
+        <v>6.132234546038766</v>
       </c>
       <c r="I32" t="n">
-        <v>23.08438641144015</v>
+        <v>23.08438641143998</v>
       </c>
       <c r="J32" t="n">
-        <v>50.82052891999138</v>
+        <v>50.82052891999102</v>
       </c>
       <c r="K32" t="n">
-        <v>76.16679898798337</v>
+        <v>76.16679898798282</v>
       </c>
       <c r="L32" t="n">
-        <v>94.49164927367461</v>
+        <v>94.49164927367391</v>
       </c>
       <c r="M32" t="n">
-        <v>105.1401664086061</v>
+        <v>105.1401664086054</v>
       </c>
       <c r="N32" t="n">
-        <v>106.8414442217572</v>
+        <v>106.8414442217564</v>
       </c>
       <c r="O32" t="n">
-        <v>100.8873461119392</v>
+        <v>100.8873461119384</v>
       </c>
       <c r="P32" t="n">
-        <v>86.10501579529489</v>
+        <v>86.10501579529426</v>
       </c>
       <c r="Q32" t="n">
-        <v>64.66128093089699</v>
+        <v>64.66128093089652</v>
       </c>
       <c r="R32" t="n">
-        <v>37.61298457733291</v>
+        <v>37.61298457733263</v>
       </c>
       <c r="S32" t="n">
-        <v>13.64465223657849</v>
+        <v>13.64465223657839</v>
       </c>
       <c r="T32" t="n">
-        <v>2.621150418677886</v>
+        <v>2.621150418677867</v>
       </c>
       <c r="U32" t="n">
-        <v>0.04790223495013837</v>
+        <v>0.04790223495013802</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.3203744404713562</v>
+        <v>0.3203744404713538</v>
       </c>
       <c r="H33" t="n">
-        <v>3.094142622447046</v>
+        <v>3.094142622447023</v>
       </c>
       <c r="I33" t="n">
-        <v>11.03043577938661</v>
+        <v>11.03043577938653</v>
       </c>
       <c r="J33" t="n">
-        <v>30.26835886926967</v>
+        <v>30.26835886926945</v>
       </c>
       <c r="K33" t="n">
-        <v>51.73344638085053</v>
+        <v>51.73344638085015</v>
       </c>
       <c r="L33" t="n">
-        <v>69.56200296287057</v>
+        <v>69.56200296287005</v>
       </c>
       <c r="M33" t="n">
-        <v>81.1755764299572</v>
+        <v>81.17557642995662</v>
       </c>
       <c r="N33" t="n">
-        <v>83.32405239259188</v>
+        <v>83.32405239259128</v>
       </c>
       <c r="O33" t="n">
-        <v>76.22522926425287</v>
+        <v>76.22522926425233</v>
       </c>
       <c r="P33" t="n">
-        <v>61.17746661948204</v>
+        <v>61.1774666194816</v>
       </c>
       <c r="Q33" t="n">
-        <v>40.89551629595768</v>
+        <v>40.89551629595738</v>
       </c>
       <c r="R33" t="n">
-        <v>19.89131833031807</v>
+        <v>19.89131833031792</v>
       </c>
       <c r="S33" t="n">
-        <v>5.950814716649966</v>
+        <v>5.950814716649924</v>
       </c>
       <c r="T33" t="n">
-        <v>1.291333819268317</v>
+        <v>1.291333819268307</v>
       </c>
       <c r="U33" t="n">
-        <v>0.02107726582048397</v>
+        <v>0.02107726582048381</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2685911688162217</v>
+        <v>0.2685911688162198</v>
       </c>
       <c r="H34" t="n">
-        <v>2.388019664566046</v>
+        <v>2.388019664566029</v>
       </c>
       <c r="I34" t="n">
-        <v>8.077268967673289</v>
+        <v>8.077268967673231</v>
       </c>
       <c r="J34" t="n">
-        <v>18.98939563530688</v>
+        <v>18.98939563530674</v>
       </c>
       <c r="K34" t="n">
-        <v>31.2054103406483</v>
+        <v>31.20541034064808</v>
       </c>
       <c r="L34" t="n">
-        <v>39.93218158927719</v>
+        <v>39.93218158927691</v>
       </c>
       <c r="M34" t="n">
-        <v>42.10288658089192</v>
+        <v>42.10288658089161</v>
       </c>
       <c r="N34" t="n">
-        <v>41.10177404257695</v>
+        <v>41.10177404257665</v>
       </c>
       <c r="O34" t="n">
-        <v>37.9641408432238</v>
+        <v>37.96414084322352</v>
       </c>
       <c r="P34" t="n">
-        <v>32.48488099937285</v>
+        <v>32.48488099937261</v>
       </c>
       <c r="Q34" t="n">
-        <v>22.49084778151108</v>
+        <v>22.49084778151092</v>
       </c>
       <c r="R34" t="n">
-        <v>12.07683564513666</v>
+        <v>12.07683564513657</v>
       </c>
       <c r="S34" t="n">
-        <v>4.680811551097245</v>
+        <v>4.680811551097211</v>
       </c>
       <c r="T34" t="n">
-        <v>1.147616812214765</v>
+        <v>1.147616812214757</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01465042738997575</v>
+        <v>0.01465042738997564</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5987779368767298</v>
+        <v>0.5987779368767251</v>
       </c>
       <c r="H35" t="n">
-        <v>6.13223454603881</v>
+        <v>6.132234546038763</v>
       </c>
       <c r="I35" t="n">
-        <v>23.08438641144015</v>
+        <v>23.08438641143997</v>
       </c>
       <c r="J35" t="n">
-        <v>50.82052891999138</v>
+        <v>50.820528919991</v>
       </c>
       <c r="K35" t="n">
-        <v>76.16679898798337</v>
+        <v>76.16679898798279</v>
       </c>
       <c r="L35" t="n">
-        <v>94.49164927367461</v>
+        <v>94.49164927367389</v>
       </c>
       <c r="M35" t="n">
-        <v>105.1401664086061</v>
+        <v>105.1401664086053</v>
       </c>
       <c r="N35" t="n">
-        <v>106.8414442217572</v>
+        <v>106.8414442217563</v>
       </c>
       <c r="O35" t="n">
-        <v>100.8873461119392</v>
+        <v>100.8873461119384</v>
       </c>
       <c r="P35" t="n">
-        <v>86.10501579529489</v>
+        <v>86.10501579529424</v>
       </c>
       <c r="Q35" t="n">
-        <v>64.66128093089699</v>
+        <v>64.6612809308965</v>
       </c>
       <c r="R35" t="n">
-        <v>37.61298457733291</v>
+        <v>37.61298457733262</v>
       </c>
       <c r="S35" t="n">
-        <v>13.64465223657849</v>
+        <v>13.64465223657839</v>
       </c>
       <c r="T35" t="n">
-        <v>2.621150418677886</v>
+        <v>2.621150418677866</v>
       </c>
       <c r="U35" t="n">
-        <v>0.04790223495013837</v>
+        <v>0.047902234950138</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.3203744404713562</v>
+        <v>0.3203744404713537</v>
       </c>
       <c r="H36" t="n">
-        <v>3.094142622447046</v>
+        <v>3.094142622447022</v>
       </c>
       <c r="I36" t="n">
-        <v>11.03043577938661</v>
+        <v>11.03043577938652</v>
       </c>
       <c r="J36" t="n">
-        <v>30.26835886926967</v>
+        <v>30.26835886926943</v>
       </c>
       <c r="K36" t="n">
-        <v>51.73344638085053</v>
+        <v>51.73344638085013</v>
       </c>
       <c r="L36" t="n">
-        <v>69.56200296287057</v>
+        <v>69.56200296287003</v>
       </c>
       <c r="M36" t="n">
-        <v>81.1755764299572</v>
+        <v>81.17557642995658</v>
       </c>
       <c r="N36" t="n">
-        <v>83.32405239259188</v>
+        <v>83.32405239259124</v>
       </c>
       <c r="O36" t="n">
-        <v>76.22522926425287</v>
+        <v>76.22522926425231</v>
       </c>
       <c r="P36" t="n">
-        <v>61.17746661948204</v>
+        <v>61.17746661948158</v>
       </c>
       <c r="Q36" t="n">
-        <v>40.89551629595768</v>
+        <v>40.89551629595736</v>
       </c>
       <c r="R36" t="n">
-        <v>19.89131833031807</v>
+        <v>19.89131833031792</v>
       </c>
       <c r="S36" t="n">
-        <v>5.950814716649966</v>
+        <v>5.950814716649921</v>
       </c>
       <c r="T36" t="n">
-        <v>1.291333819268317</v>
+        <v>1.291333819268307</v>
       </c>
       <c r="U36" t="n">
-        <v>0.02107726582048397</v>
+        <v>0.0210772658204838</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2685911688162217</v>
+        <v>0.2685911688162197</v>
       </c>
       <c r="H37" t="n">
-        <v>2.388019664566046</v>
+        <v>2.388019664566028</v>
       </c>
       <c r="I37" t="n">
-        <v>8.077268967673289</v>
+        <v>8.077268967673229</v>
       </c>
       <c r="J37" t="n">
-        <v>18.98939563530688</v>
+        <v>18.98939563530673</v>
       </c>
       <c r="K37" t="n">
-        <v>31.2054103406483</v>
+        <v>31.20541034064806</v>
       </c>
       <c r="L37" t="n">
-        <v>39.93218158927719</v>
+        <v>39.93218158927689</v>
       </c>
       <c r="M37" t="n">
-        <v>42.10288658089192</v>
+        <v>42.1028865808916</v>
       </c>
       <c r="N37" t="n">
-        <v>41.10177404257695</v>
+        <v>41.10177404257663</v>
       </c>
       <c r="O37" t="n">
-        <v>37.9641408432238</v>
+        <v>37.9641408432235</v>
       </c>
       <c r="P37" t="n">
-        <v>32.48488099937285</v>
+        <v>32.4848809993726</v>
       </c>
       <c r="Q37" t="n">
-        <v>22.49084778151108</v>
+        <v>22.49084778151091</v>
       </c>
       <c r="R37" t="n">
-        <v>12.07683564513666</v>
+        <v>12.07683564513657</v>
       </c>
       <c r="S37" t="n">
-        <v>4.680811551097245</v>
+        <v>4.680811551097209</v>
       </c>
       <c r="T37" t="n">
-        <v>1.147616812214765</v>
+        <v>1.147616812214757</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01465042738997575</v>
+        <v>0.01465042738997564</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5987779368767298</v>
+        <v>0.5987779368767251</v>
       </c>
       <c r="H38" t="n">
-        <v>6.13223454603881</v>
+        <v>6.132234546038763</v>
       </c>
       <c r="I38" t="n">
-        <v>23.08438641144015</v>
+        <v>23.08438641143997</v>
       </c>
       <c r="J38" t="n">
-        <v>50.82052891999138</v>
+        <v>50.820528919991</v>
       </c>
       <c r="K38" t="n">
-        <v>76.16679898798337</v>
+        <v>76.16679898798279</v>
       </c>
       <c r="L38" t="n">
-        <v>94.49164927367461</v>
+        <v>94.49164927367389</v>
       </c>
       <c r="M38" t="n">
-        <v>105.1401664086061</v>
+        <v>105.1401664086053</v>
       </c>
       <c r="N38" t="n">
-        <v>106.8414442217572</v>
+        <v>106.8414442217563</v>
       </c>
       <c r="O38" t="n">
-        <v>100.8873461119392</v>
+        <v>100.8873461119384</v>
       </c>
       <c r="P38" t="n">
-        <v>86.10501579529489</v>
+        <v>86.10501579529424</v>
       </c>
       <c r="Q38" t="n">
-        <v>64.66128093089699</v>
+        <v>64.6612809308965</v>
       </c>
       <c r="R38" t="n">
-        <v>37.61298457733291</v>
+        <v>37.61298457733262</v>
       </c>
       <c r="S38" t="n">
-        <v>13.64465223657849</v>
+        <v>13.64465223657839</v>
       </c>
       <c r="T38" t="n">
-        <v>2.621150418677886</v>
+        <v>2.621150418677866</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04790223495013837</v>
+        <v>0.047902234950138</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.3203744404713562</v>
+        <v>0.3203744404713537</v>
       </c>
       <c r="H39" t="n">
-        <v>3.094142622447046</v>
+        <v>3.094142622447022</v>
       </c>
       <c r="I39" t="n">
-        <v>11.03043577938661</v>
+        <v>11.03043577938652</v>
       </c>
       <c r="J39" t="n">
-        <v>30.26835886926967</v>
+        <v>30.26835886926943</v>
       </c>
       <c r="K39" t="n">
-        <v>51.73344638085053</v>
+        <v>51.73344638085013</v>
       </c>
       <c r="L39" t="n">
-        <v>69.56200296287057</v>
+        <v>69.56200296287003</v>
       </c>
       <c r="M39" t="n">
-        <v>81.1755764299572</v>
+        <v>81.17557642995658</v>
       </c>
       <c r="N39" t="n">
-        <v>83.32405239259188</v>
+        <v>83.32405239259124</v>
       </c>
       <c r="O39" t="n">
-        <v>76.22522926425287</v>
+        <v>76.22522926425231</v>
       </c>
       <c r="P39" t="n">
-        <v>61.17746661948204</v>
+        <v>61.17746661948158</v>
       </c>
       <c r="Q39" t="n">
-        <v>40.89551629595768</v>
+        <v>40.89551629595736</v>
       </c>
       <c r="R39" t="n">
-        <v>19.89131833031807</v>
+        <v>19.89131833031792</v>
       </c>
       <c r="S39" t="n">
-        <v>5.950814716649966</v>
+        <v>5.950814716649921</v>
       </c>
       <c r="T39" t="n">
-        <v>1.291333819268317</v>
+        <v>1.291333819268307</v>
       </c>
       <c r="U39" t="n">
-        <v>0.02107726582048397</v>
+        <v>0.0210772658204838</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2685911688162217</v>
+        <v>0.2685911688162197</v>
       </c>
       <c r="H40" t="n">
-        <v>2.388019664566046</v>
+        <v>2.388019664566028</v>
       </c>
       <c r="I40" t="n">
-        <v>8.077268967673289</v>
+        <v>8.077268967673229</v>
       </c>
       <c r="J40" t="n">
-        <v>18.98939563530688</v>
+        <v>18.98939563530673</v>
       </c>
       <c r="K40" t="n">
-        <v>31.2054103406483</v>
+        <v>31.20541034064806</v>
       </c>
       <c r="L40" t="n">
-        <v>39.93218158927719</v>
+        <v>39.93218158927689</v>
       </c>
       <c r="M40" t="n">
-        <v>42.10288658089192</v>
+        <v>42.1028865808916</v>
       </c>
       <c r="N40" t="n">
-        <v>41.10177404257695</v>
+        <v>41.10177404257663</v>
       </c>
       <c r="O40" t="n">
-        <v>37.9641408432238</v>
+        <v>37.9641408432235</v>
       </c>
       <c r="P40" t="n">
-        <v>32.48488099937285</v>
+        <v>32.4848809993726</v>
       </c>
       <c r="Q40" t="n">
-        <v>22.49084778151108</v>
+        <v>22.49084778151091</v>
       </c>
       <c r="R40" t="n">
-        <v>12.07683564513666</v>
+        <v>12.07683564513657</v>
       </c>
       <c r="S40" t="n">
-        <v>4.680811551097245</v>
+        <v>4.680811551097209</v>
       </c>
       <c r="T40" t="n">
-        <v>1.147616812214765</v>
+        <v>1.147616812214757</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01465042738997575</v>
+        <v>0.01465042738997564</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5987779368767298</v>
+        <v>0.5987779368767251</v>
       </c>
       <c r="H41" t="n">
-        <v>6.13223454603881</v>
+        <v>6.132234546038763</v>
       </c>
       <c r="I41" t="n">
-        <v>23.08438641144015</v>
+        <v>23.08438641143997</v>
       </c>
       <c r="J41" t="n">
-        <v>50.82052891999138</v>
+        <v>50.820528919991</v>
       </c>
       <c r="K41" t="n">
-        <v>76.16679898798337</v>
+        <v>76.16679898798279</v>
       </c>
       <c r="L41" t="n">
-        <v>94.49164927367461</v>
+        <v>94.49164927367389</v>
       </c>
       <c r="M41" t="n">
-        <v>105.1401664086061</v>
+        <v>105.1401664086053</v>
       </c>
       <c r="N41" t="n">
-        <v>106.8414442217572</v>
+        <v>106.8414442217563</v>
       </c>
       <c r="O41" t="n">
-        <v>100.8873461119392</v>
+        <v>100.8873461119384</v>
       </c>
       <c r="P41" t="n">
-        <v>86.10501579529489</v>
+        <v>86.10501579529424</v>
       </c>
       <c r="Q41" t="n">
-        <v>64.66128093089699</v>
+        <v>64.6612809308965</v>
       </c>
       <c r="R41" t="n">
-        <v>37.61298457733291</v>
+        <v>37.61298457733262</v>
       </c>
       <c r="S41" t="n">
-        <v>13.64465223657849</v>
+        <v>13.64465223657839</v>
       </c>
       <c r="T41" t="n">
-        <v>2.621150418677886</v>
+        <v>2.621150418677866</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04790223495013837</v>
+        <v>0.047902234950138</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.3203744404713562</v>
+        <v>0.3203744404713537</v>
       </c>
       <c r="H42" t="n">
-        <v>3.094142622447046</v>
+        <v>3.094142622447022</v>
       </c>
       <c r="I42" t="n">
-        <v>11.03043577938661</v>
+        <v>11.03043577938652</v>
       </c>
       <c r="J42" t="n">
-        <v>30.26835886926967</v>
+        <v>30.26835886926943</v>
       </c>
       <c r="K42" t="n">
-        <v>51.73344638085053</v>
+        <v>51.73344638085013</v>
       </c>
       <c r="L42" t="n">
-        <v>69.56200296287057</v>
+        <v>69.56200296287003</v>
       </c>
       <c r="M42" t="n">
-        <v>81.1755764299572</v>
+        <v>81.17557642995658</v>
       </c>
       <c r="N42" t="n">
-        <v>83.32405239259188</v>
+        <v>83.32405239259124</v>
       </c>
       <c r="O42" t="n">
-        <v>76.22522926425287</v>
+        <v>76.22522926425231</v>
       </c>
       <c r="P42" t="n">
-        <v>61.17746661948204</v>
+        <v>61.17746661948158</v>
       </c>
       <c r="Q42" t="n">
-        <v>40.89551629595768</v>
+        <v>40.89551629595736</v>
       </c>
       <c r="R42" t="n">
-        <v>19.89131833031807</v>
+        <v>19.89131833031792</v>
       </c>
       <c r="S42" t="n">
-        <v>5.950814716649966</v>
+        <v>5.950814716649921</v>
       </c>
       <c r="T42" t="n">
-        <v>1.291333819268317</v>
+        <v>1.291333819268307</v>
       </c>
       <c r="U42" t="n">
-        <v>0.02107726582048397</v>
+        <v>0.0210772658204838</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2685911688162217</v>
+        <v>0.2685911688162197</v>
       </c>
       <c r="H43" t="n">
-        <v>2.388019664566046</v>
+        <v>2.388019664566028</v>
       </c>
       <c r="I43" t="n">
-        <v>8.077268967673289</v>
+        <v>8.077268967673229</v>
       </c>
       <c r="J43" t="n">
-        <v>18.98939563530688</v>
+        <v>18.98939563530673</v>
       </c>
       <c r="K43" t="n">
-        <v>31.2054103406483</v>
+        <v>31.20541034064806</v>
       </c>
       <c r="L43" t="n">
-        <v>39.93218158927719</v>
+        <v>39.93218158927689</v>
       </c>
       <c r="M43" t="n">
-        <v>42.10288658089192</v>
+        <v>42.1028865808916</v>
       </c>
       <c r="N43" t="n">
-        <v>41.10177404257695</v>
+        <v>41.10177404257663</v>
       </c>
       <c r="O43" t="n">
-        <v>37.9641408432238</v>
+        <v>37.9641408432235</v>
       </c>
       <c r="P43" t="n">
-        <v>32.48488099937285</v>
+        <v>32.4848809993726</v>
       </c>
       <c r="Q43" t="n">
-        <v>22.49084778151108</v>
+        <v>22.49084778151091</v>
       </c>
       <c r="R43" t="n">
-        <v>12.07683564513666</v>
+        <v>12.07683564513657</v>
       </c>
       <c r="S43" t="n">
-        <v>4.680811551097245</v>
+        <v>4.680811551097209</v>
       </c>
       <c r="T43" t="n">
-        <v>1.147616812214765</v>
+        <v>1.147616812214757</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01465042738997575</v>
+        <v>0.01465042738997564</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5987779368767338</v>
+        <v>0.5987779368767251</v>
       </c>
       <c r="H44" t="n">
-        <v>6.132234546038851</v>
+        <v>6.132234546038763</v>
       </c>
       <c r="I44" t="n">
-        <v>23.0843864114403</v>
+        <v>23.08438641143997</v>
       </c>
       <c r="J44" t="n">
-        <v>50.82052891999172</v>
+        <v>50.820528919991</v>
       </c>
       <c r="K44" t="n">
-        <v>76.16679898798388</v>
+        <v>76.16679898798279</v>
       </c>
       <c r="L44" t="n">
-        <v>94.49164927367524</v>
+        <v>94.49164927367389</v>
       </c>
       <c r="M44" t="n">
-        <v>105.1401664086068</v>
+        <v>105.1401664086053</v>
       </c>
       <c r="N44" t="n">
-        <v>106.8414442217579</v>
+        <v>106.8414442217563</v>
       </c>
       <c r="O44" t="n">
-        <v>100.8873461119398</v>
+        <v>100.8873461119384</v>
       </c>
       <c r="P44" t="n">
-        <v>86.10501579529547</v>
+        <v>86.10501579529424</v>
       </c>
       <c r="Q44" t="n">
-        <v>64.66128093089742</v>
+        <v>64.6612809308965</v>
       </c>
       <c r="R44" t="n">
-        <v>37.61298457733316</v>
+        <v>37.61298457733262</v>
       </c>
       <c r="S44" t="n">
-        <v>13.64465223657858</v>
+        <v>13.64465223657839</v>
       </c>
       <c r="T44" t="n">
-        <v>2.621150418677903</v>
+        <v>2.621150418677866</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04790223495013868</v>
+        <v>0.047902234950138</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3203744404713583</v>
+        <v>0.3203744404713537</v>
       </c>
       <c r="H45" t="n">
-        <v>3.094142622447066</v>
+        <v>3.094142622447022</v>
       </c>
       <c r="I45" t="n">
-        <v>11.03043577938668</v>
+        <v>11.03043577938652</v>
       </c>
       <c r="J45" t="n">
-        <v>30.26835886926987</v>
+        <v>30.26835886926943</v>
       </c>
       <c r="K45" t="n">
-        <v>51.73344638085087</v>
+        <v>51.73344638085013</v>
       </c>
       <c r="L45" t="n">
-        <v>69.56200296287102</v>
+        <v>69.56200296287003</v>
       </c>
       <c r="M45" t="n">
-        <v>81.17557642995774</v>
+        <v>81.17557642995658</v>
       </c>
       <c r="N45" t="n">
-        <v>83.32405239259244</v>
+        <v>83.32405239259124</v>
       </c>
       <c r="O45" t="n">
-        <v>76.22522926425339</v>
+        <v>76.22522926425231</v>
       </c>
       <c r="P45" t="n">
-        <v>61.17746661948245</v>
+        <v>61.17746661948158</v>
       </c>
       <c r="Q45" t="n">
-        <v>40.89551629595795</v>
+        <v>40.89551629595736</v>
       </c>
       <c r="R45" t="n">
-        <v>19.8913183303182</v>
+        <v>19.89131833031792</v>
       </c>
       <c r="S45" t="n">
-        <v>5.950814716650006</v>
+        <v>5.950814716649921</v>
       </c>
       <c r="T45" t="n">
-        <v>1.291333819268325</v>
+        <v>1.291333819268307</v>
       </c>
       <c r="U45" t="n">
-        <v>0.02107726582048411</v>
+        <v>0.0210772658204838</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2685911688162236</v>
+        <v>0.2685911688162197</v>
       </c>
       <c r="H46" t="n">
-        <v>2.388019664566062</v>
+        <v>2.388019664566028</v>
       </c>
       <c r="I46" t="n">
-        <v>8.077268967673344</v>
+        <v>8.077268967673229</v>
       </c>
       <c r="J46" t="n">
-        <v>18.98939563530701</v>
+        <v>18.98939563530673</v>
       </c>
       <c r="K46" t="n">
-        <v>31.20541034064851</v>
+        <v>31.20541034064806</v>
       </c>
       <c r="L46" t="n">
-        <v>39.93218158927746</v>
+        <v>39.93218158927689</v>
       </c>
       <c r="M46" t="n">
-        <v>42.1028865808922</v>
+        <v>42.1028865808916</v>
       </c>
       <c r="N46" t="n">
-        <v>41.10177404257722</v>
+        <v>41.10177404257663</v>
       </c>
       <c r="O46" t="n">
-        <v>37.96414084322405</v>
+        <v>37.9641408432235</v>
       </c>
       <c r="P46" t="n">
-        <v>32.48488099937306</v>
+        <v>32.4848809993726</v>
       </c>
       <c r="Q46" t="n">
-        <v>22.49084778151123</v>
+        <v>22.49084778151091</v>
       </c>
       <c r="R46" t="n">
-        <v>12.07683564513674</v>
+        <v>12.07683564513657</v>
       </c>
       <c r="S46" t="n">
-        <v>4.680811551097277</v>
+        <v>4.680811551097209</v>
       </c>
       <c r="T46" t="n">
-        <v>1.147616812214773</v>
+        <v>1.147616812214757</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01465042738997585</v>
+        <v>0.01465042738997564</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34780,16 +34780,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>22.71185353989332</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>662.4019911217769</v>
+        <v>362.1450102553813</v>
       </c>
       <c r="O3" t="n">
         <v>521.7376591828091</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -35026,16 +35026,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N6" t="n">
-        <v>662.4019911217769</v>
+        <v>346.4620637222652</v>
       </c>
       <c r="O6" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P6" t="n">
-        <v>35.05004611020335</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35193,7 +35193,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,13 +35254,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>35.0500461102036</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
-        <v>488.450591816478</v>
+        <v>188.193610950082</v>
       </c>
       <c r="M9" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>662.4019911217769</v>
@@ -35269,10 +35269,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>661.9265169917663</v>
+        <v>23.49322931597588</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35725,22 +35725,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
-        <v>113.782083667694</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
-        <v>662.4019911217769</v>
+        <v>372.2447499518083</v>
       </c>
       <c r="O15" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>409.7185542589873</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
-        <v>35.05004611020361</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36202,25 +36202,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
-        <v>32.81159323632111</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36357,28 +36357,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>196.9314106460804</v>
+        <v>196.93141064608</v>
       </c>
       <c r="K23" t="n">
-        <v>438.775239419763</v>
+        <v>438.7752394197624</v>
       </c>
       <c r="L23" t="n">
-        <v>592.7949742418856</v>
+        <v>592.7949742418849</v>
       </c>
       <c r="M23" t="n">
-        <v>656.6562270596976</v>
+        <v>656.6562270596969</v>
       </c>
       <c r="N23" t="n">
-        <v>639.9841549666683</v>
+        <v>639.9841549666676</v>
       </c>
       <c r="O23" t="n">
-        <v>545.3717914577255</v>
+        <v>545.3717914577247</v>
       </c>
       <c r="P23" t="n">
-        <v>437.8095533018826</v>
+        <v>437.809553301882</v>
       </c>
       <c r="Q23" t="n">
-        <v>251.3739679419561</v>
+        <v>251.3739679419556</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>20.10721346581064</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>374.7022807871394</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>558.0125947793481</v>
       </c>
       <c r="M24" t="n">
-        <v>715.2883538306453</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>745.7260435143687</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>597.962888447062</v>
+        <v>597.9628884470615</v>
       </c>
       <c r="P24" t="n">
-        <v>240.3316445737208</v>
+        <v>470.8960208784689</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>277.627932007968</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36518,25 +36518,25 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>113.8670680274583</v>
+        <v>113.867068027458</v>
       </c>
       <c r="L25" t="n">
-        <v>205.7176764112972</v>
+        <v>205.7176764112969</v>
       </c>
       <c r="M25" t="n">
-        <v>230.2761980336839</v>
+        <v>230.2761980336836</v>
       </c>
       <c r="N25" t="n">
-        <v>226.1418084175357</v>
+        <v>226.1418084175355</v>
       </c>
       <c r="O25" t="n">
-        <v>202.3123903803026</v>
+        <v>202.3123903803024</v>
       </c>
       <c r="P25" t="n">
-        <v>153.571917137331</v>
+        <v>153.5719171373308</v>
       </c>
       <c r="Q25" t="n">
-        <v>25.94761179166357</v>
+        <v>25.9476117916634</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,28 +36594,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>196.9314106460804</v>
+        <v>196.93141064608</v>
       </c>
       <c r="K26" t="n">
-        <v>438.775239419763</v>
+        <v>438.7752394197624</v>
       </c>
       <c r="L26" t="n">
-        <v>592.7949742418856</v>
+        <v>592.7949742418849</v>
       </c>
       <c r="M26" t="n">
-        <v>656.6562270596976</v>
+        <v>656.6562270596969</v>
       </c>
       <c r="N26" t="n">
-        <v>639.9841549666683</v>
+        <v>639.9841549666676</v>
       </c>
       <c r="O26" t="n">
-        <v>545.3717914577255</v>
+        <v>545.3717914577247</v>
       </c>
       <c r="P26" t="n">
-        <v>437.8095533018826</v>
+        <v>437.809553301882</v>
       </c>
       <c r="Q26" t="n">
-        <v>251.3739679419561</v>
+        <v>251.3739679419556</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>20.10721346581064</v>
       </c>
       <c r="K27" t="n">
-        <v>207.0960455179283</v>
+        <v>374.7022807871394</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>558.0125947793481</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>745.7260435143687</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>597.962888447062</v>
+        <v>597.9628884470615</v>
       </c>
       <c r="P27" t="n">
-        <v>470.8960208784694</v>
+        <v>470.8960208784689</v>
       </c>
       <c r="Q27" t="n">
-        <v>277.6279320079683</v>
+        <v>277.627932007968</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36755,25 +36755,25 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>113.8670680274583</v>
+        <v>113.867068027458</v>
       </c>
       <c r="L28" t="n">
-        <v>205.7176764112972</v>
+        <v>205.7176764112969</v>
       </c>
       <c r="M28" t="n">
-        <v>230.2761980336839</v>
+        <v>230.2761980336836</v>
       </c>
       <c r="N28" t="n">
-        <v>226.1418084175357</v>
+        <v>226.1418084175355</v>
       </c>
       <c r="O28" t="n">
-        <v>202.3123903803026</v>
+        <v>202.3123903803024</v>
       </c>
       <c r="P28" t="n">
-        <v>153.571917137331</v>
+        <v>153.5719171373308</v>
       </c>
       <c r="Q28" t="n">
-        <v>25.94761179166357</v>
+        <v>25.9476117916634</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,28 +36831,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>196.9314106460804</v>
+        <v>196.93141064608</v>
       </c>
       <c r="K29" t="n">
-        <v>438.775239419763</v>
+        <v>438.7752394197624</v>
       </c>
       <c r="L29" t="n">
-        <v>592.7949742418856</v>
+        <v>592.7949742418849</v>
       </c>
       <c r="M29" t="n">
-        <v>656.6562270596976</v>
+        <v>656.6562270596969</v>
       </c>
       <c r="N29" t="n">
-        <v>639.9841549666683</v>
+        <v>639.9841549666676</v>
       </c>
       <c r="O29" t="n">
-        <v>545.3717914577255</v>
+        <v>545.3717914577247</v>
       </c>
       <c r="P29" t="n">
-        <v>437.8095533018826</v>
+        <v>437.809553301882</v>
       </c>
       <c r="Q29" t="n">
-        <v>251.3739679419561</v>
+        <v>251.3739679419556</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>20.10721346581064</v>
       </c>
       <c r="K30" t="n">
-        <v>374.7022807871398</v>
+        <v>374.7022807871394</v>
       </c>
       <c r="L30" t="n">
-        <v>558.0125947793485</v>
+        <v>558.0125947793481</v>
       </c>
       <c r="M30" t="n">
-        <v>715.2883538306453</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>597.9628884470615</v>
       </c>
       <c r="P30" t="n">
-        <v>470.8960208784694</v>
+        <v>470.8960208784689</v>
       </c>
       <c r="Q30" t="n">
-        <v>180.4096800901936</v>
+        <v>277.627932007968</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36992,25 +36992,25 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>113.8670680274583</v>
+        <v>113.867068027458</v>
       </c>
       <c r="L31" t="n">
-        <v>205.7176764112972</v>
+        <v>205.7176764112969</v>
       </c>
       <c r="M31" t="n">
-        <v>230.2761980336839</v>
+        <v>230.2761980336836</v>
       </c>
       <c r="N31" t="n">
-        <v>226.1418084175357</v>
+        <v>226.1418084175355</v>
       </c>
       <c r="O31" t="n">
-        <v>202.3123903803026</v>
+        <v>202.3123903803024</v>
       </c>
       <c r="P31" t="n">
-        <v>153.571917137331</v>
+        <v>153.5719171373308</v>
       </c>
       <c r="Q31" t="n">
-        <v>25.94761179166357</v>
+        <v>25.9476117916634</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,28 +37068,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>196.9314106460804</v>
+        <v>196.93141064608</v>
       </c>
       <c r="K32" t="n">
-        <v>438.775239419763</v>
+        <v>438.7752394197624</v>
       </c>
       <c r="L32" t="n">
-        <v>592.7949742418856</v>
+        <v>592.7949742418849</v>
       </c>
       <c r="M32" t="n">
-        <v>656.6562270596976</v>
+        <v>656.6562270596969</v>
       </c>
       <c r="N32" t="n">
-        <v>639.9841549666683</v>
+        <v>639.9841549666676</v>
       </c>
       <c r="O32" t="n">
-        <v>545.3717914577255</v>
+        <v>545.3717914577247</v>
       </c>
       <c r="P32" t="n">
-        <v>437.8095533018826</v>
+        <v>437.809553301882</v>
       </c>
       <c r="Q32" t="n">
-        <v>251.3739679419561</v>
+        <v>251.3739679419556</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>20.10721346581064</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>374.7022807871394</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>558.0125947793481</v>
       </c>
       <c r="M33" t="n">
-        <v>715.2883538306453</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>515.1616672096198</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>597.962888447062</v>
+        <v>597.9628884470615</v>
       </c>
       <c r="P33" t="n">
-        <v>470.8960208784694</v>
+        <v>470.8960208784689</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>277.627932007968</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37229,25 +37229,25 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>113.8670680274583</v>
+        <v>113.867068027458</v>
       </c>
       <c r="L34" t="n">
-        <v>205.7176764112972</v>
+        <v>205.7176764112969</v>
       </c>
       <c r="M34" t="n">
-        <v>230.2761980336839</v>
+        <v>230.2761980336836</v>
       </c>
       <c r="N34" t="n">
-        <v>226.1418084175357</v>
+        <v>226.1418084175355</v>
       </c>
       <c r="O34" t="n">
-        <v>202.3123903803026</v>
+        <v>202.3123903803024</v>
       </c>
       <c r="P34" t="n">
-        <v>153.571917137331</v>
+        <v>153.5719171373308</v>
       </c>
       <c r="Q34" t="n">
-        <v>25.94761179166357</v>
+        <v>25.9476117916634</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,28 +37305,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>196.9314106460804</v>
+        <v>196.93141064608</v>
       </c>
       <c r="K35" t="n">
-        <v>438.775239419763</v>
+        <v>438.7752394197624</v>
       </c>
       <c r="L35" t="n">
-        <v>592.7949742418856</v>
+        <v>592.7949742418848</v>
       </c>
       <c r="M35" t="n">
-        <v>656.6562270596976</v>
+        <v>656.6562270596968</v>
       </c>
       <c r="N35" t="n">
-        <v>639.9841549666683</v>
+        <v>639.9841549666675</v>
       </c>
       <c r="O35" t="n">
-        <v>545.3717914577255</v>
+        <v>545.3717914577247</v>
       </c>
       <c r="P35" t="n">
-        <v>437.8095533018826</v>
+        <v>437.8095533018819</v>
       </c>
       <c r="Q35" t="n">
-        <v>251.3739679419561</v>
+        <v>251.3739679419557</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>20.10721346581066</v>
       </c>
       <c r="K36" t="n">
-        <v>374.7022807871398</v>
+        <v>374.7022807871394</v>
       </c>
       <c r="L36" t="n">
-        <v>558.0125947793485</v>
+        <v>558.0125947793481</v>
       </c>
       <c r="M36" t="n">
-        <v>297.7351454737768</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>597.962888447062</v>
+        <v>597.9628884470615</v>
       </c>
       <c r="P36" t="n">
-        <v>470.8960208784694</v>
+        <v>470.8960208784689</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>277.627932007968</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37466,25 +37466,25 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>113.8670680274583</v>
+        <v>113.867068027458</v>
       </c>
       <c r="L37" t="n">
-        <v>205.7176764112972</v>
+        <v>205.7176764112969</v>
       </c>
       <c r="M37" t="n">
-        <v>230.2761980336839</v>
+        <v>230.2761980336836</v>
       </c>
       <c r="N37" t="n">
-        <v>226.1418084175357</v>
+        <v>226.1418084175354</v>
       </c>
       <c r="O37" t="n">
-        <v>202.3123903803026</v>
+        <v>202.3123903803024</v>
       </c>
       <c r="P37" t="n">
-        <v>153.571917137331</v>
+        <v>153.5719171373308</v>
       </c>
       <c r="Q37" t="n">
-        <v>25.94761179166357</v>
+        <v>25.94761179166339</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,28 +37542,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>196.9314106460804</v>
+        <v>196.93141064608</v>
       </c>
       <c r="K38" t="n">
-        <v>438.775239419763</v>
+        <v>438.7752394197624</v>
       </c>
       <c r="L38" t="n">
-        <v>592.7949742418856</v>
+        <v>592.7949742418848</v>
       </c>
       <c r="M38" t="n">
-        <v>656.6562270596976</v>
+        <v>656.6562270596968</v>
       </c>
       <c r="N38" t="n">
-        <v>639.9841549666683</v>
+        <v>639.9841549666675</v>
       </c>
       <c r="O38" t="n">
-        <v>545.3717914577255</v>
+        <v>545.3717914577247</v>
       </c>
       <c r="P38" t="n">
-        <v>437.8095533018826</v>
+        <v>437.8095533018819</v>
       </c>
       <c r="Q38" t="n">
-        <v>251.3739679419561</v>
+        <v>251.3739679419556</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>20.10721346581066</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>374.7022807871394</v>
       </c>
       <c r="L39" t="n">
-        <v>558.0125947793485</v>
+        <v>558.0125947793481</v>
       </c>
       <c r="M39" t="n">
-        <v>715.2883538306453</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>745.7260435143687</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>280.2819382414341</v>
+        <v>597.9628884470615</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>470.8960208784689</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>277.627932007968</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37703,25 +37703,25 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>113.8670680274583</v>
+        <v>113.867068027458</v>
       </c>
       <c r="L40" t="n">
-        <v>205.7176764112972</v>
+        <v>205.7176764112969</v>
       </c>
       <c r="M40" t="n">
-        <v>230.2761980336839</v>
+        <v>230.2761980336836</v>
       </c>
       <c r="N40" t="n">
-        <v>226.1418084175357</v>
+        <v>226.1418084175354</v>
       </c>
       <c r="O40" t="n">
-        <v>202.3123903803026</v>
+        <v>202.3123903803024</v>
       </c>
       <c r="P40" t="n">
-        <v>153.571917137331</v>
+        <v>153.5719171373308</v>
       </c>
       <c r="Q40" t="n">
-        <v>25.94761179166357</v>
+        <v>25.94761179166339</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>196.9314106460804</v>
+        <v>196.93141064608</v>
       </c>
       <c r="K41" t="n">
-        <v>438.775239419763</v>
+        <v>438.7752394197624</v>
       </c>
       <c r="L41" t="n">
-        <v>592.7949742418856</v>
+        <v>592.7949742418848</v>
       </c>
       <c r="M41" t="n">
-        <v>656.6562270596976</v>
+        <v>656.6562270596968</v>
       </c>
       <c r="N41" t="n">
-        <v>639.9841549666683</v>
+        <v>639.9841549666675</v>
       </c>
       <c r="O41" t="n">
-        <v>545.3717914577255</v>
+        <v>545.3717914577247</v>
       </c>
       <c r="P41" t="n">
-        <v>437.8095533018826</v>
+        <v>437.8095533018819</v>
       </c>
       <c r="Q41" t="n">
-        <v>251.3739679419561</v>
+        <v>251.3739679419556</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>20.10721346581066</v>
       </c>
       <c r="K42" t="n">
-        <v>374.7022807871398</v>
+        <v>374.7022807871394</v>
       </c>
       <c r="L42" t="n">
-        <v>558.0125947793485</v>
+        <v>558.0125947793481</v>
       </c>
       <c r="M42" t="n">
-        <v>297.7351454737768</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>597.962888447062</v>
+        <v>597.9628884470615</v>
       </c>
       <c r="P42" t="n">
-        <v>470.8960208784694</v>
+        <v>470.8960208784689</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>277.627932007968</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37940,25 +37940,25 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>113.8670680274583</v>
+        <v>113.867068027458</v>
       </c>
       <c r="L43" t="n">
-        <v>205.7176764112972</v>
+        <v>205.7176764112969</v>
       </c>
       <c r="M43" t="n">
-        <v>230.2761980336839</v>
+        <v>230.2761980336836</v>
       </c>
       <c r="N43" t="n">
-        <v>226.1418084175357</v>
+        <v>226.1418084175354</v>
       </c>
       <c r="O43" t="n">
-        <v>202.3123903803026</v>
+        <v>202.3123903803024</v>
       </c>
       <c r="P43" t="n">
-        <v>153.571917137331</v>
+        <v>153.5719171373308</v>
       </c>
       <c r="Q43" t="n">
-        <v>25.94761179166357</v>
+        <v>25.94761179166339</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>196.9314106460807</v>
+        <v>196.93141064608</v>
       </c>
       <c r="K44" t="n">
-        <v>438.7752394197635</v>
+        <v>438.7752394197624</v>
       </c>
       <c r="L44" t="n">
-        <v>592.7949742418862</v>
+        <v>592.7949742418848</v>
       </c>
       <c r="M44" t="n">
-        <v>656.6562270596984</v>
+        <v>656.6562270596968</v>
       </c>
       <c r="N44" t="n">
-        <v>639.9841549666691</v>
+        <v>639.9841549666675</v>
       </c>
       <c r="O44" t="n">
-        <v>545.3717914577262</v>
+        <v>545.3717914577247</v>
       </c>
       <c r="P44" t="n">
-        <v>437.8095533018832</v>
+        <v>437.8095533018819</v>
       </c>
       <c r="Q44" t="n">
-        <v>251.3739679419566</v>
+        <v>251.3739679419556</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>20.10721346581066</v>
       </c>
       <c r="K45" t="n">
-        <v>374.7022807871402</v>
+        <v>374.7022807871394</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>558.0125947793481</v>
       </c>
       <c r="M45" t="n">
-        <v>715.2883538306457</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>597.9628884470625</v>
+        <v>597.9628884470615</v>
       </c>
       <c r="P45" t="n">
-        <v>333.7274752929799</v>
+        <v>470.8960208784689</v>
       </c>
       <c r="Q45" t="n">
-        <v>277.6279320079686</v>
+        <v>277.627932007968</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38177,25 +38177,25 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>113.8670680274585</v>
+        <v>113.867068027458</v>
       </c>
       <c r="L46" t="n">
-        <v>205.7176764112974</v>
+        <v>205.7176764112969</v>
       </c>
       <c r="M46" t="n">
-        <v>230.2761980336842</v>
+        <v>230.2761980336836</v>
       </c>
       <c r="N46" t="n">
-        <v>226.141808417536</v>
+        <v>226.1418084175354</v>
       </c>
       <c r="O46" t="n">
-        <v>202.3123903803029</v>
+        <v>202.3123903803024</v>
       </c>
       <c r="P46" t="n">
-        <v>153.5719171373312</v>
+        <v>153.5719171373308</v>
       </c>
       <c r="Q46" t="n">
-        <v>25.94761179166371</v>
+        <v>25.94761179166339</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
